--- a/FC_figure_bank/mRNALossAccDF.xlsx
+++ b/FC_figure_bank/mRNALossAccDF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02114269457930742</v>
+        <v>0.1725940406322479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0209934621816501</v>
+        <v>0.1723453785691942</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07485849917838233</v>
+        <v>0.09785932721712538</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07549120992761117</v>
+        <v>0.09900990099009901</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02113859909911488</v>
+        <v>0.1693575800293022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02091092499904335</v>
+        <v>0.1667842481817518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07485849917838233</v>
+        <v>0.1677588466579292</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07549120992761117</v>
+        <v>0.2797029702970297</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02103627538091915</v>
+        <v>0.164784745623668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02084808528888971</v>
+        <v>0.165569041456495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07485849917838233</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07549120992761117</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02094347844290179</v>
+        <v>0.1635778297980627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02077400975394994</v>
+        <v>0.1655165680817195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07485849917838233</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07549120992761117</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02082282517018706</v>
+        <v>0.1635610531601641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02073442668188363</v>
+        <v>0.165256319301469</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08873470878218002</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1365046535677353</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02078095295054968</v>
+        <v>0.1633068902624978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02072118001524359</v>
+        <v>0.1651074694735663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1318239912360782</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1302998965873837</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02072619577479917</v>
+        <v>0.1633962529400984</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02072862081695348</v>
+        <v>0.1650700526578086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1526383056417747</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1292657704239917</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02070955080954835</v>
+        <v>0.1631933202346166</v>
       </c>
       <c r="C9" t="n">
-        <v>0.020748685230501</v>
+        <v>0.164797944681985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1624977177286836</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1489141675284385</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02069073456317879</v>
+        <v>0.1627586525347498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02074862131848931</v>
+        <v>0.1645848453044891</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1542815409895928</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1313340227507756</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02071795493450969</v>
+        <v>0.1629294301900599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02072554070036858</v>
+        <v>0.1644972796951021</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1679751688880774</v>
+        <v>0.2944517256443862</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1478800413650465</v>
+        <v>0.2871287128712871</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02065622349551251</v>
+        <v>0.1624500494864252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0207496996736154</v>
+        <v>0.1642350064856666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1564725214533504</v>
+        <v>0.2927042376583661</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.2871287128712871</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02067751654012259</v>
+        <v>0.1623682123091486</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02075710985809565</v>
+        <v>0.1640447910342898</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1628628811393098</v>
+        <v>0.3005679335954565</v>
       </c>
       <c r="E13" t="n">
-        <v>0.172699069286453</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02067855256068152</v>
+        <v>0.1622566411064731</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02071708289440721</v>
+        <v>0.1636290699243546</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1703487310571481</v>
+        <v>0.3027522935779817</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1695966907962771</v>
+        <v>0.3069306930693069</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02064828031024961</v>
+        <v>0.1620815388030476</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02073792961891741</v>
+        <v>0.1638989129236766</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1637757896658755</v>
+        <v>0.3307121013543032</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02066651305053816</v>
+        <v>0.1618781445754899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02075708820484579</v>
+        <v>0.1633327113730567</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1798429797334307</v>
+        <v>0.309742245522062</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1602895553257497</v>
+        <v>0.3044554455445544</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02063085485336393</v>
+        <v>0.161668546911743</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02074730943422765</v>
+        <v>0.1633032304900033</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1654190250136936</v>
+        <v>0.3267802533857579</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1695966907962771</v>
+        <v>0.2920792079207921</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02068695510456035</v>
+        <v>0.1613906299074491</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02080199040938169</v>
+        <v>0.1628628713744027</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1668796786561987</v>
+        <v>0.3320227173438183</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1892450879007239</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02063045325840629</v>
+        <v>0.1615531688763036</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02071304142009467</v>
+        <v>0.1627679743937084</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1729048749315319</v>
+        <v>0.3298383573612931</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1695966907962771</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02062846690979461</v>
+        <v>0.1609719300435649</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02071583434008062</v>
+        <v>0.1625158701624189</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1714442212890268</v>
+        <v>0.3171690694626474</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02061495226049839</v>
+        <v>0.160996793044938</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0206995242042467</v>
+        <v>0.1628627479076385</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1778345809749863</v>
+        <v>0.327217125382263</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1551189245087901</v>
+        <v>0.301980198019802</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02065272852345261</v>
+        <v>0.1609804150131014</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02070207940414548</v>
+        <v>0.1622658095189503</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1710790578784006</v>
+        <v>0.3254696373962429</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1644260599793175</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02060216317646379</v>
+        <v>0.1607287505434619</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02072280552238226</v>
+        <v>0.1622532180377415</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1765565090377944</v>
+        <v>0.3324595893403233</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1706308169596691</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02064881151065577</v>
+        <v>0.1610086696843306</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02071646822150797</v>
+        <v>0.1620375003133501</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1792952346174913</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1654601861427094</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02062408288204393</v>
+        <v>0.1609780982964569</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02070639608427882</v>
+        <v>0.1619888756956373</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1683403322987037</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1530506721820062</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02062853116022293</v>
+        <v>0.1606968198385504</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02074260718654841</v>
+        <v>0.1619774188314165</v>
       </c>
       <c r="D26" t="n">
-        <v>0.168888077414643</v>
+        <v>0.326343381389253</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1851085832471561</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02063340072108562</v>
+        <v>0.1605930270420181</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02072046347893775</v>
+        <v>0.1620564184018544</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1747306919846632</v>
+        <v>0.327217125382263</v>
       </c>
       <c r="E27" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3316831683168317</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02062744624522883</v>
+        <v>0.1605732701718807</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02069003600627184</v>
+        <v>0.1620889646666391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1761913456271681</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1633919338159255</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02064586727511744</v>
+        <v>0.1605910199383895</v>
       </c>
       <c r="C29" t="n">
-        <v>0.020712188212201</v>
+        <v>0.1621080211230687</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17454811027935</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E29" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0206009792813728</v>
+        <v>0.1601746479670207</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02075299597345293</v>
+        <v>0.161821261048317</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1712616395837137</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1695966907962771</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02062727569407502</v>
+        <v>0.1604714141123825</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02075345325283706</v>
+        <v>0.1618605937276568</v>
       </c>
       <c r="D31" t="n">
-        <v>0.173087456636845</v>
+        <v>0.3294014853647881</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1830403309203723</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02059414452158434</v>
+        <v>0.1604358019928137</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02074906823690981</v>
+        <v>0.1618674865790776</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1741829468687238</v>
+        <v>0.3298383573612931</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3737623762376238</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02059824242754731</v>
+        <v>0.1603199905819363</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02070398302748799</v>
+        <v>0.161942190357617</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1811210516706226</v>
+        <v>0.3328964613368283</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1706308169596691</v>
+        <v>0.344059405940594</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02061980224192836</v>
+        <v>0.1603887706167168</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02069735957775265</v>
+        <v>0.1617736262934548</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1752784371006025</v>
+        <v>0.3149847094801223</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1633919338159255</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0206092809825096</v>
+        <v>0.160285584628582</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02069461019709706</v>
+        <v>0.1621647242988859</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1738177834580975</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1602895553257497</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02060651179229797</v>
+        <v>0.1604391514427132</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02070519153494388</v>
+        <v>0.1617547592946461</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1729048749315319</v>
+        <v>0.3123634775010922</v>
       </c>
       <c r="E36" t="n">
-        <v>0.171664943123061</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02060852243110191</v>
+        <v>0.1603612158861425</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02075529610738158</v>
+        <v>0.1617207740034376</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1687054957093299</v>
+        <v>0.3215377894276977</v>
       </c>
       <c r="E37" t="n">
-        <v>0.18717683557394</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02063354585579661</v>
+        <v>0.160360187292099</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02069917076732963</v>
+        <v>0.161960916859763</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1803907248493701</v>
+        <v>0.3342070773263434</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1664943123061013</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02059140875069208</v>
+        <v>0.1604685158365303</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02071827801410109</v>
+        <v>0.1620435586997441</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1736352017527844</v>
+        <v>0.3193534294451726</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02060944311927224</v>
+        <v>0.1602349951863289</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02069799322634935</v>
+        <v>0.16182556109769</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1840423589556326</v>
+        <v>0.3232852774137178</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02061396313094815</v>
+        <v>0.1602432483600246</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02073622564785182</v>
+        <v>0.161721761737551</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1683403322987037</v>
+        <v>0.327217125382263</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1830403309203723</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02062140697570041</v>
+        <v>0.1600186025930775</v>
       </c>
       <c r="C42" t="n">
-        <v>0.02071464457549155</v>
+        <v>0.1619337903601783</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1761913456271681</v>
+        <v>0.3324595893403233</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02059630709591993</v>
+        <v>0.1603549602958891</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02068642096128315</v>
+        <v>0.1617742372410638</v>
       </c>
       <c r="D43" t="n">
-        <v>0.190250136936279</v>
+        <v>0.3285277413717781</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1551189245087901</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02061534283119579</v>
+        <v>0.1604023579921987</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02071337285451591</v>
+        <v>0.1617468531642641</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1769216724484207</v>
+        <v>0.328090869375273</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0206097345582621</v>
+        <v>0.1602816792825858</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02070361969526857</v>
+        <v>0.161826280610902</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1666970969508855</v>
+        <v>0.3267802533857579</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1695966907962771</v>
+        <v>0.3341584158415842</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02056960735556691</v>
+        <v>0.1602369319233629</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02077613968867809</v>
+        <v>0.1617862667356219</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1836771955450064</v>
+        <v>0.3193534294451726</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0206256378442049</v>
+        <v>0.1603841719528039</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0207246751524508</v>
+        <v>0.1617439878838403</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1767390907431075</v>
+        <v>0.3219746614242027</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1840744570837642</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02062925773261245</v>
+        <v>0.1603408199217584</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02073625370394439</v>
+        <v>0.1617756017616817</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1772868358590469</v>
+        <v>0.3241590214067278</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02058574674261171</v>
+        <v>0.1601666969557603</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02070457581430674</v>
+        <v>0.162381649017334</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1721745481102794</v>
+        <v>0.3245958934032329</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0206013627696869</v>
+        <v>0.1604065899219778</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02074799651745707</v>
+        <v>0.1621224454471043</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1794778163228045</v>
+        <v>0.3206640454346876</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1985522233712513</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02062002721047679</v>
+        <v>0.1602303182913197</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0206847358494997</v>
+        <v>0.1620438780103411</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1780171626802994</v>
+        <v>0.3311489733508082</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1695966907962771</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0205818306827961</v>
+        <v>0.1601378156079186</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02068419789429754</v>
+        <v>0.1621456486838204</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1814862150812488</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02062476328899001</v>
+        <v>0.1603287296990553</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02068419824354351</v>
+        <v>0.1622412119592939</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1725397115209056</v>
+        <v>0.3145478374836173</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1685625646328852</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02057743828397158</v>
+        <v>0.160151711354653</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02069557993672788</v>
+        <v>0.1618288287094661</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1844075223662589</v>
+        <v>0.3189165574486675</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0205723240018584</v>
+        <v>0.1600377708673477</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02073835942428559</v>
+        <v>0.1617327077048165</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1710790578784006</v>
+        <v>0.3241590214067278</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1861427094105481</v>
+        <v>0.3316831683168317</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02059702702992877</v>
+        <v>0.1600415669381618</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02069985645357519</v>
+        <v>0.161888205579349</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1823991236078145</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02061226825381434</v>
+        <v>0.1601933456129498</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02072868519462645</v>
+        <v>0.161800069468362</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1750958553952894</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1820062047569803</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02059726334761742</v>
+        <v>0.1602150851653682</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02069891360588372</v>
+        <v>0.162458775298936</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1787474895015519</v>
+        <v>0.3267802533857579</v>
       </c>
       <c r="E58" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02057516661494277</v>
+        <v>0.1603893000218603</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0207447858992964</v>
+        <v>0.1618011827979769</v>
       </c>
       <c r="D59" t="n">
-        <v>0.181668796786562</v>
+        <v>0.3158584534731324</v>
       </c>
       <c r="E59" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02061305416011533</v>
+        <v>0.1601842405895392</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02071079704910517</v>
+        <v>0.1619963880096163</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1754610188059156</v>
+        <v>0.3228484054172128</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02059810131051859</v>
+        <v>0.1602249787085586</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02069269539788365</v>
+        <v>0.1619513098682676</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1750958553952894</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1613236814891417</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02058018406116685</v>
+        <v>0.1601656269696024</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02069810207467526</v>
+        <v>0.1621681196349008</v>
       </c>
       <c r="D62" t="n">
-        <v>0.176008763921855</v>
+        <v>0.3219746614242027</v>
       </c>
       <c r="E62" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02059295489777659</v>
+        <v>0.1598941555453671</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02069587085861713</v>
+        <v>0.1618493454796927</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1823991236078145</v>
+        <v>0.3315858453473132</v>
       </c>
       <c r="E63" t="n">
-        <v>0.171664943123061</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02062147533044566</v>
+        <v>0.1600409667525027</v>
       </c>
       <c r="C64" t="n">
-        <v>0.02077067666687071</v>
+        <v>0.1621656268835068</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1701661493518349</v>
+        <v>0.3267802533857579</v>
       </c>
       <c r="E64" t="n">
-        <v>0.18717683557394</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0205871015570538</v>
+        <v>0.1600707053310341</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0207191159715876</v>
+        <v>0.1618422887154988</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1803907248493701</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0205926037675073</v>
+        <v>0.1599987575577365</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02070914546493441</v>
+        <v>0.1620685777493886</v>
       </c>
       <c r="D66" t="n">
-        <v>0.180208143144057</v>
+        <v>0.3219746614242027</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1778697001034126</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02058692462742329</v>
+        <v>0.160064022988081</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02071210194844753</v>
+        <v>0.1618280134030751</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1756436005112288</v>
+        <v>0.3302752293577982</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1840744570837642</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02058248546754205</v>
+        <v>0.1599024720489979</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02069461042992771</v>
+        <v>0.1616846578461783</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1876939930618952</v>
+        <v>0.3254696373962429</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1695966907962771</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02057945671989474</v>
+        <v>0.1600171364843845</v>
       </c>
       <c r="C69" t="n">
-        <v>0.02073996618855745</v>
+        <v>0.161922533597265</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1787474895015519</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1840744570837642</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02059088477345054</v>
+        <v>0.1598378494381905</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02069716213736683</v>
+        <v>0.1623368263244629</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1858681760087639</v>
+        <v>0.3180428134556575</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3316831683168317</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02058847803016042</v>
+        <v>0.1599045106106334</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02069886855315417</v>
+        <v>0.1617802722113473</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1853204308928245</v>
+        <v>0.3119266055045872</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02059844582406587</v>
+        <v>0.1599517572257254</v>
       </c>
       <c r="C72" t="n">
-        <v>0.02071042102761567</v>
+        <v>0.1626247678484236</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1734526200474713</v>
+        <v>0.3298383573612931</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3242574257425743</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02059143142731384</v>
+        <v>0.1599967065784666</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02070157695561647</v>
+        <v>0.16178212421281</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1740003651634106</v>
+        <v>0.3241590214067278</v>
       </c>
       <c r="E73" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02057052399356698</v>
+        <v>0.1600631496144665</v>
       </c>
       <c r="C74" t="n">
-        <v>0.02070590888615698</v>
+        <v>0.161871326821191</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1771042541537338</v>
+        <v>0.3302752293577982</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1778697001034126</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02060101750891569</v>
+        <v>0.1599544154273139</v>
       </c>
       <c r="C75" t="n">
-        <v>0.02068845380563289</v>
+        <v>0.1619367514337812</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1822165419025014</v>
+        <v>0.3237221494102228</v>
       </c>
       <c r="E75" t="n">
-        <v>0.171664943123061</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02056767193730488</v>
+        <v>0.1599292167358928</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02068005141336471</v>
+        <v>0.1619220354727336</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1862333394193902</v>
+        <v>0.3219746614242027</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.02057726592431928</v>
+        <v>0.1600221151279079</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02078463300131261</v>
+        <v>0.1620708256959915</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1708964761730875</v>
+        <v>0.3202271734381826</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1851085832471561</v>
+        <v>0.3292079207920792</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02057811282141957</v>
+        <v>0.1599488800598515</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02069184149149805</v>
+        <v>0.1619415730237961</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1836771955450064</v>
+        <v>0.3162953254696374</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1706308169596691</v>
+        <v>0.3341584158415842</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02055602765447179</v>
+        <v>0.1599452822572655</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02068457787390798</v>
+        <v>0.1622242884976523</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1738177834580975</v>
+        <v>0.3171690694626474</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.344059405940594</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02060061244857173</v>
+        <v>0.1597040382524332</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02068814297672361</v>
+        <v>0.1619009290422712</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1769216724484207</v>
+        <v>0.3228484054172128</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3341584158415842</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02059031431671492</v>
+        <v>0.1597123166753186</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0206918636104092</v>
+        <v>0.1620211920567921</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1719919664049662</v>
+        <v>0.3162953254696374</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3193069306930693</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02055430472936741</v>
+        <v>0.1598731606370873</v>
       </c>
       <c r="C82" t="n">
-        <v>0.02071852458175272</v>
+        <v>0.1618614494800568</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1740003651634106</v>
+        <v>0.3298383573612931</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1830403309203723</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.02057510554833814</v>
+        <v>0.1600856793423494</v>
       </c>
       <c r="C83" t="n">
-        <v>0.02068138890899718</v>
+        <v>0.1618649129356657</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1862333394193902</v>
+        <v>0.3215377894276977</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1602895553257497</v>
+        <v>0.344059405940594</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02055715132764606</v>
+        <v>0.1599642828934723</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02072997053619474</v>
+        <v>0.1620023931775774</v>
       </c>
       <c r="D84" t="n">
-        <v>0.17162680299434</v>
+        <v>0.3219746614242027</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.02055753306160833</v>
+        <v>0.1598624860246976</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02070610807277262</v>
+        <v>0.1621059562478747</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1856855943034508</v>
+        <v>0.328090869375273</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1778697001034126</v>
+        <v>0.3316831683168317</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02056719354072283</v>
+        <v>0.159835871309042</v>
       </c>
       <c r="C86" t="n">
-        <v>0.02067822345998138</v>
+        <v>0.162227030311312</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1752784371006025</v>
+        <v>0.3232852774137178</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0205578611253999</v>
+        <v>0.1597295064065191</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02070324239321053</v>
+        <v>0.1617918504135949</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1776519992696732</v>
+        <v>0.3202271734381826</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.02056632955493622</v>
+        <v>0.1600171290338039</v>
       </c>
       <c r="C88" t="n">
-        <v>0.02068475680425763</v>
+        <v>0.161964163184166</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1913456271681578</v>
+        <v>0.3202271734381826</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1582213029989659</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02056320964596992</v>
+        <v>0.1598759521212843</v>
       </c>
       <c r="C89" t="n">
-        <v>0.02068157424218953</v>
+        <v>0.1618930654866355</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1789300712068651</v>
+        <v>0.3245958934032329</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1602895553257497</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02055160190130389</v>
+        <v>0.159643418673012</v>
       </c>
       <c r="C90" t="n">
-        <v>0.02068228437565267</v>
+        <v>0.1617685386112758</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1727222932262187</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1664943123061013</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02057876154173945</v>
+        <v>0.1599746950798565</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02071951178368181</v>
+        <v>0.1619322321244649</v>
       </c>
       <c r="D91" t="n">
-        <v>0.183129450429067</v>
+        <v>0.3141109654871123</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1830403309203723</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02055695661625197</v>
+        <v>0.159994180003802</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0207098777173087</v>
+        <v>0.1621168149369104</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1847726857768852</v>
+        <v>0.3193534294451726</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1851085832471561</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02056251797651829</v>
+        <v>0.1597646106448438</v>
       </c>
       <c r="C93" t="n">
-        <v>0.02070181095041335</v>
+        <v>0.1620307075125831</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1805733065546832</v>
+        <v>0.3342070773263434</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02062893333996451</v>
+        <v>0.1598139380415281</v>
       </c>
       <c r="C94" t="n">
-        <v>0.02078839740715921</v>
+        <v>0.1619450322219304</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1842249406609458</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E94" t="n">
-        <v>0.203722854188211</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02058307457238782</v>
+        <v>0.15974836382601</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02069322718307376</v>
+        <v>0.1621423917157309</v>
       </c>
       <c r="D95" t="n">
-        <v>0.176008763921855</v>
+        <v>0.3228484054172128</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.3341584158415842</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02059192164952672</v>
+        <v>0.1596808466646406</v>
       </c>
       <c r="C96" t="n">
-        <v>0.02068860630970448</v>
+        <v>0.1619401701859065</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1732700383421581</v>
+        <v>0.3215377894276977</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02056995761948963</v>
+        <v>0.1597498349017567</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02067312865983695</v>
+        <v>0.1618633781160627</v>
       </c>
       <c r="D97" t="n">
-        <v>0.184590104071572</v>
+        <v>0.3154215814766274</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1571871768355739</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0205433429976882</v>
+        <v>0.1598257248600324</v>
       </c>
       <c r="C98" t="n">
-        <v>0.02069762046448886</v>
+        <v>0.1618904450110027</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1792952346174913</v>
+        <v>0.327217125382263</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.02057947930988184</v>
+        <v>0.1599073054061996</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02068593073636293</v>
+        <v>0.1621063330343791</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1820339601971882</v>
+        <v>0.3307121013543032</v>
       </c>
       <c r="E99" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3564356435643564</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02055072858063288</v>
+        <v>0.1597232475048966</v>
       </c>
       <c r="C100" t="n">
-        <v>0.02070140081923455</v>
+        <v>0.1618370584079198</v>
       </c>
       <c r="D100" t="n">
-        <v>0.17746941756436</v>
+        <v>0.3162953254696374</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3292079207920792</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0205565209088977</v>
+        <v>0.1596813831064436</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02069599844980985</v>
+        <v>0.161804124712944</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1794778163228045</v>
+        <v>0.3241590214067278</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.02055893132333145</v>
+        <v>0.1596720905767547</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02069517131894827</v>
+        <v>0.1621083510773522</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1800255614387438</v>
+        <v>0.3193534294451726</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1778697001034126</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.02056692495162404</v>
+        <v>0.1597452776299583</v>
       </c>
       <c r="C103" t="n">
-        <v>0.02069653442595154</v>
+        <v>0.1620621936661857</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1778345809749863</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1851085832471561</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.02054999792558509</v>
+        <v>0.1595504441195064</v>
       </c>
       <c r="C104" t="n">
-        <v>0.02069420530460775</v>
+        <v>0.1618980233158384</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1869636662406427</v>
+        <v>0.3237221494102228</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1685625646328852</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.02056265044091053</v>
+        <v>0.1599642352925407</v>
       </c>
       <c r="C105" t="n">
-        <v>0.020703443326056</v>
+        <v>0.1618598252534866</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1787474895015519</v>
+        <v>0.3171690694626474</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.344059405940594</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.02054119010477565</v>
+        <v>0.159660497887267</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02069670136552304</v>
+        <v>0.1619807247604643</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1750958553952894</v>
+        <v>0.326343381389253</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02054643156656692</v>
+        <v>0.1596083016031318</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02067137986887246</v>
+        <v>0.1626055879252297</v>
       </c>
       <c r="D107" t="n">
-        <v>0.183129450429067</v>
+        <v>0.3215377894276977</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1623578076525336</v>
+        <v>0.3118811881188119</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.02056251622216646</v>
+        <v>0.1599201042619016</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02070712309796363</v>
+        <v>0.1621394285133907</v>
       </c>
       <c r="D108" t="n">
-        <v>0.183129450429067</v>
+        <v>0.3237221494102228</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.02057091142375802</v>
+        <v>0.1596613104144732</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02077882154844701</v>
+        <v>0.1618571920054299</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1767390907431075</v>
+        <v>0.327217125382263</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1861427094105481</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.02056520557854065</v>
+        <v>0.1597378643022643</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02071103896014392</v>
+        <v>0.1620609611272812</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183129450429067</v>
+        <v>0.3315858453473132</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1830403309203723</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0205459744604521</v>
+        <v>0.1598000853425927</v>
       </c>
       <c r="C111" t="n">
-        <v>0.02067991334479302</v>
+        <v>0.1620719411543437</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1827642870184407</v>
+        <v>0.3141109654871123</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.02057366872336282</v>
+        <v>0.15987961490949</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02068503701593727</v>
+        <v>0.1618874073028564</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1825817053131276</v>
+        <v>0.3202271734381826</v>
       </c>
       <c r="E112" t="n">
-        <v>0.171664943123061</v>
+        <v>0.344059405940594</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.02058056723543031</v>
+        <v>0.1597856788171662</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02068212477024645</v>
+        <v>0.1618555464914867</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1849552674821983</v>
+        <v>0.3167321974661424</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1695966907962771</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.02053406232491482</v>
+        <v>0.1596905659470293</v>
       </c>
       <c r="C114" t="n">
-        <v>0.02069880336057395</v>
+        <v>0.1619610978024346</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1792952346174913</v>
+        <v>0.3184796854521625</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1778697001034126</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.02057726549114599</v>
+        <v>0.1597823595835103</v>
       </c>
       <c r="C115" t="n">
-        <v>0.02067301876377314</v>
+        <v>0.1620150485209056</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1807558882599964</v>
+        <v>0.3267802533857579</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1685625646328852</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02054099660626678</v>
+        <v>0.1596626134382354</v>
       </c>
       <c r="C116" t="n">
-        <v>0.02068489673547447</v>
+        <v>0.161856791802815</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1833120321343801</v>
+        <v>0.3241590214067278</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02056398739778372</v>
+        <v>0.159635207719273</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0207290961407125</v>
+        <v>0.1618743815592357</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1840423589556326</v>
+        <v>0.3228484054172128</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1851085832471561</v>
+        <v>0.3316831683168317</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02057284523927888</v>
+        <v>0.1598718489209811</v>
       </c>
       <c r="C118" t="n">
-        <v>0.02068149670958519</v>
+        <v>0.1619395954268319</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1761913456271681</v>
+        <v>0.3141109654871123</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1644260599793175</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02055298201306615</v>
+        <v>0.1594721103707949</v>
       </c>
       <c r="C119" t="n">
-        <v>0.02068163687363267</v>
+        <v>0.161798643214362</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1878765747672083</v>
+        <v>0.3215377894276977</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.02055715186911267</v>
+        <v>0.1596287840770351</v>
       </c>
       <c r="C120" t="n">
-        <v>0.02068111358676106</v>
+        <v>0.161923138158662</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1800255614387438</v>
+        <v>0.3228484054172128</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1695966907962771</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.02053919638138871</v>
+        <v>0.1595272587405311</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0206946813268587</v>
+        <v>0.1618983319827489</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1803907248493701</v>
+        <v>0.3237221494102228</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.02051855851138054</v>
+        <v>0.1594717626770338</v>
       </c>
       <c r="C122" t="n">
-        <v>0.02068389253690839</v>
+        <v>0.1617963101182665</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1783823260909257</v>
+        <v>0.326343381389253</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.02050981415045816</v>
+        <v>0.1596294629077117</v>
       </c>
       <c r="C123" t="n">
-        <v>0.02070946083404124</v>
+        <v>0.1619678884744644</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1834946138396933</v>
+        <v>0.3285277413717781</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1820062047569803</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.02052813140285569</v>
+        <v>0.1597310859296057</v>
       </c>
       <c r="C124" t="n">
-        <v>0.02070246858056635</v>
+        <v>0.1620263010263443</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1834946138396933</v>
+        <v>0.3180428134556575</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1706308169596691</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0205228386100295</v>
+        <v>0.1596222515735361</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0207323053618893</v>
+        <v>0.1618408901350839</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1785649077962388</v>
+        <v>0.3219746614242027</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1851085832471561</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.02053747163695651</v>
+        <v>0.1596347424719069</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02068071102257818</v>
+        <v>0.1619102976151875</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1882417381778346</v>
+        <v>0.327653997378768</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.02052694234217322</v>
+        <v>0.1596787340111203</v>
       </c>
       <c r="C127" t="n">
-        <v>0.02068668021820486</v>
+        <v>0.1621202209166118</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1836771955450064</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1809720785935884</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.02051830973995979</v>
+        <v>0.159344457089901</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02076908107846975</v>
+        <v>0.1618396235363824</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1847726857768852</v>
+        <v>0.3315858453473132</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.02060869546217281</v>
+        <v>0.1595776904788282</v>
       </c>
       <c r="C129" t="n">
-        <v>0.02067447581794113</v>
+        <v>0.1619667304413659</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1818513784918751</v>
+        <v>0.3346439493228484</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1592554291623578</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.02055052213024261</v>
+        <v>0.1595071864624818</v>
       </c>
       <c r="C130" t="n">
-        <v>0.02066500938963145</v>
+        <v>0.1621304090533938</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1836771955450064</v>
+        <v>0.3141109654871123</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.02055926857039679</v>
+        <v>0.159620742003123</v>
       </c>
       <c r="C131" t="n">
-        <v>0.02071752725169063</v>
+        <v>0.1621069503682</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1738177834580975</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1954498448810755</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.02053518202372415</v>
+        <v>0.1595766925149494</v>
       </c>
       <c r="C132" t="n">
-        <v>0.02071278309449553</v>
+        <v>0.1617532159600939</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1803907248493701</v>
+        <v>0.3254696373962429</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.3316831683168317</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.02056050084011499</v>
+        <v>0.1594874142772622</v>
       </c>
       <c r="C133" t="n">
-        <v>0.02072062075603753</v>
+        <v>0.1618555039167404</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1807558882599964</v>
+        <v>0.3267802533857579</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.02051154218700736</v>
+        <v>0.1595033390654458</v>
       </c>
       <c r="C134" t="n">
-        <v>0.02068614680320024</v>
+        <v>0.1620902376515525</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1809384699653095</v>
+        <v>0.3215377894276977</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.02053819854505533</v>
+        <v>0.1594041801161236</v>
       </c>
       <c r="C135" t="n">
-        <v>0.02066550124436617</v>
+        <v>0.1618653237819672</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1867810845353296</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="E135" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.02053688034458562</v>
+        <v>0.1594646304017968</v>
       </c>
       <c r="C136" t="n">
-        <v>0.02067049290053546</v>
+        <v>0.1620546260050365</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1791126529121782</v>
+        <v>0.3311489733508082</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.02051085170878227</v>
+        <v>0.1593052165375816</v>
       </c>
       <c r="C137" t="n">
-        <v>0.02072527608834207</v>
+        <v>0.1618003270455769</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1811210516706226</v>
+        <v>0.3245958934032329</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02051584117201179</v>
+        <v>0.1595744093259176</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0207009642617777</v>
+        <v>0.1618682465382985</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1809384699653095</v>
+        <v>0.3267802533857579</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1809720785935884</v>
+        <v>0.3316831683168317</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0205205611364786</v>
+        <v>0.1597576294508245</v>
       </c>
       <c r="C139" t="n">
-        <v>0.02067928842734545</v>
+        <v>0.161935853106635</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1825817053131276</v>
+        <v>0.3241590214067278</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.02052700840110002</v>
+        <v>0.1593880727887154</v>
       </c>
       <c r="C140" t="n">
-        <v>0.02067131653893739</v>
+        <v>0.1619160239185606</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1840423589556326</v>
+        <v>0.327653997378768</v>
       </c>
       <c r="E140" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3341584158415842</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.02052573818540157</v>
+        <v>0.1596549418237474</v>
       </c>
       <c r="C141" t="n">
-        <v>0.02069258189294487</v>
+        <v>0.1617877164057323</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1827642870184407</v>
+        <v>0.3193534294451726</v>
       </c>
       <c r="E141" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.02054249122738838</v>
+        <v>0.1597065577904383</v>
       </c>
       <c r="C142" t="n">
-        <v>0.02070309105329216</v>
+        <v>0.1617327524083001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1858681760087639</v>
+        <v>0.3359545653123635</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1809720785935884</v>
+        <v>0.344059405940594</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0204891522501617</v>
+        <v>0.1595710387660397</v>
       </c>
       <c r="C143" t="n">
-        <v>0.02066692535299808</v>
+        <v>0.1618138530424663</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1792952346174913</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.02050592849940755</v>
+        <v>0.1595573259724511</v>
       </c>
       <c r="C144" t="n">
-        <v>0.02068375761155039</v>
+        <v>0.1622034290007182</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1749132736899763</v>
+        <v>0.3298383573612931</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1789038262668045</v>
+        <v>0.3391089108910891</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.02052916697941201</v>
+        <v>0.1593094534344143</v>
       </c>
       <c r="C145" t="n">
-        <v>0.02069943130481988</v>
+        <v>0.1618837650333132</v>
       </c>
       <c r="D145" t="n">
-        <v>0.183129450429067</v>
+        <v>0.3298383573612931</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1809720785935884</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.02053146895974181</v>
+        <v>0.1592578399512503</v>
       </c>
       <c r="C146" t="n">
-        <v>0.02075286360923201</v>
+        <v>0.1618167502539498</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1809384699653095</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1830403309203723</v>
+        <v>0.3242574257425743</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0205164008210738</v>
+        <v>0.159511123266485</v>
       </c>
       <c r="C147" t="n">
-        <v>0.02068271988537163</v>
+        <v>0.1619860636336463</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1838597772503195</v>
+        <v>0.3206640454346876</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.02050421397786501</v>
+        <v>0.1593494059311019</v>
       </c>
       <c r="C148" t="n">
-        <v>0.02069040760397911</v>
+        <v>0.1621421490396772</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1825817053131276</v>
+        <v>0.3215377894276977</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0205120696188059</v>
+        <v>0.1598195023834705</v>
       </c>
       <c r="C149" t="n">
-        <v>0.02069477434270084</v>
+        <v>0.1623240539005824</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1873288296512689</v>
+        <v>0.3302752293577982</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.02051178765548177</v>
+        <v>0.1595656056371</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0206798828439787</v>
+        <v>0.1618657197271074</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1783823260909257</v>
+        <v>0.3307121013543032</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02053669151351896</v>
+        <v>0.1592601492173142</v>
       </c>
       <c r="C151" t="n">
-        <v>0.02069155510980636</v>
+        <v>0.161854047860418</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1860507577140771</v>
+        <v>0.326343381389253</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1664943123061013</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02051764461320154</v>
+        <v>0.1595117039978504</v>
       </c>
       <c r="C152" t="n">
-        <v>0.02072126837447286</v>
+        <v>0.1619473951203483</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1880591564725214</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1540847983453981</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="153">
@@ -3032,16 +3032,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.02055051153915566</v>
+        <v>0.1593603346910742</v>
       </c>
       <c r="C153" t="n">
-        <v>0.02069244883023202</v>
+        <v>0.1618627969707762</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1679751688880774</v>
+        <v>0.3267802533857579</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1820062047569803</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="154">
@@ -3049,16 +3049,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.02051155405595552</v>
+        <v>0.1592309143808153</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02068177843466401</v>
+        <v>0.1618423121316092</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1803907248493701</v>
+        <v>0.3285277413717781</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="155">
@@ -3066,16 +3066,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.02053205482661724</v>
+        <v>0.1594234485593107</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02068509487435222</v>
+        <v>0.162227960569518</v>
       </c>
       <c r="D155" t="n">
-        <v>0.184590104071572</v>
+        <v>0.3416339012669288</v>
       </c>
       <c r="E155" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="156">
@@ -3083,16 +3083,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02052065892534894</v>
+        <v>0.1595377052823702</v>
       </c>
       <c r="C156" t="n">
-        <v>0.02069021377246827</v>
+        <v>0.1618054636887142</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1838597772503195</v>
+        <v>0.3359545653123635</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="157">
@@ -3100,16 +3100,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02052459822491158</v>
+        <v>0.1591756327284707</v>
       </c>
       <c r="C157" t="n">
-        <v>0.02066751290112734</v>
+        <v>0.1617402753659657</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1772868358590469</v>
+        <v>0.3342070773263434</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="158">
@@ -3117,16 +3117,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.02050968402520169</v>
+        <v>0.1595734068089061</v>
       </c>
       <c r="C158" t="n">
-        <v>0.02069461322389543</v>
+        <v>0.1616532781294414</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1834946138396933</v>
+        <v>0.3245958934032329</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="159">
@@ -3134,16 +3134,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.02051229636336482</v>
+        <v>0.1591841615736485</v>
       </c>
       <c r="C159" t="n">
-        <v>0.02068636810872704</v>
+        <v>0.1619000051702772</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1833120321343801</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="160">
@@ -3151,16 +3151,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0204936814559407</v>
+        <v>0.1594230582316717</v>
       </c>
       <c r="C160" t="n">
-        <v>0.02069057687185705</v>
+        <v>0.1618789200271879</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1814862150812488</v>
+        <v>0.3206640454346876</v>
       </c>
       <c r="E160" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="161">
@@ -3168,16 +3168,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.02053463792558326</v>
+        <v>0.1593295579983128</v>
       </c>
       <c r="C161" t="n">
-        <v>0.02068500022869557</v>
+        <v>0.1617794164589473</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1807558882599964</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="162">
@@ -3185,16 +3185,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.02053346188175817</v>
+        <v>0.159373196048869</v>
       </c>
       <c r="C162" t="n">
-        <v>0.02073362015653402</v>
+        <v>0.1616785526275635</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1758261822165419</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1840744570837642</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="163">
@@ -3202,16 +3202,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.02051053367295238</v>
+        <v>0.1591860991385248</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02068056946154684</v>
+        <v>0.1617531861577715</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1833120321343801</v>
+        <v>0.3176059414591524</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="164">
@@ -3219,16 +3219,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.02052391846772543</v>
+        <v>0.1593062894211875</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0206794774858281</v>
+        <v>0.1619287346090589</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1800255614387438</v>
+        <v>0.3394495412844037</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1789038262668045</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="165">
@@ -3236,16 +3236,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.02052997386212959</v>
+        <v>0.1592102406753434</v>
       </c>
       <c r="C165" t="n">
-        <v>0.02069258037954569</v>
+        <v>0.1617867137704577</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1838597772503195</v>
+        <v>0.3302752293577982</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="166">
@@ -3253,16 +3253,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.02049801386026449</v>
+        <v>0.1593012544843886</v>
       </c>
       <c r="C166" t="n">
-        <v>0.02067022421397269</v>
+        <v>0.1616378256252834</v>
       </c>
       <c r="D166" t="n">
-        <v>0.181668796786562</v>
+        <v>0.3259065093927479</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="167">
@@ -3270,16 +3270,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.02049275802794931</v>
+        <v>0.1591927338805464</v>
       </c>
       <c r="C167" t="n">
-        <v>0.02067451295442879</v>
+        <v>0.1619944359574999</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1823991236078145</v>
+        <v>0.3224115334207077</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="168">
@@ -3287,16 +3287,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.02049066637491071</v>
+        <v>0.1594509701761934</v>
       </c>
       <c r="C168" t="n">
-        <v>0.02069559437222779</v>
+        <v>0.1620153465441295</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1864159211247033</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="169">
@@ -3304,16 +3304,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.020524233168121</v>
+        <v>0.1595147988862461</v>
       </c>
       <c r="C169" t="n">
-        <v>0.02075841650366783</v>
+        <v>0.161781913467816</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1805733065546832</v>
+        <v>0.3237221494102228</v>
       </c>
       <c r="E169" t="n">
-        <v>0.1923474663908997</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="170">
@@ -3321,16 +3321,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.02048887845215409</v>
+        <v>0.1592639688816335</v>
       </c>
       <c r="C170" t="n">
-        <v>0.02066459762863815</v>
+        <v>0.1619367791073663</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1767390907431075</v>
+        <v>0.3315858453473132</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="171">
@@ -3338,16 +3338,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.02045349068506512</v>
+        <v>0.1593099215792285</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02067807118874043</v>
+        <v>0.1618373095989227</v>
       </c>
       <c r="D171" t="n">
-        <v>0.181668796786562</v>
+        <v>0.3167321974661424</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1664943123061013</v>
+        <v>0.3514851485148515</v>
       </c>
     </row>
     <row r="172">
@@ -3355,16 +3355,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.02050549432981846</v>
+        <v>0.1594169392353958</v>
       </c>
       <c r="C172" t="n">
-        <v>0.02067347476258874</v>
+        <v>0.1616524585655757</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1855030125981377</v>
+        <v>0.3285277413717781</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="173">
@@ -3372,16 +3372,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.02047742967125635</v>
+        <v>0.1591355510883861</v>
       </c>
       <c r="C173" t="n">
-        <v>0.02065679454244673</v>
+        <v>0.1616446120398385</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1853204308928245</v>
+        <v>0.328090869375273</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1654601861427094</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="174">
@@ -3389,16 +3389,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.02051202545678893</v>
+        <v>0.1591645015610589</v>
       </c>
       <c r="C174" t="n">
-        <v>0.02068749361205846</v>
+        <v>0.1617098706109183</v>
       </c>
       <c r="D174" t="n">
-        <v>0.17454811027935</v>
+        <v>0.3420707732634338</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1830403309203723</v>
+        <v>0.3688118811881188</v>
       </c>
     </row>
     <row r="175">
@@ -3406,16 +3406,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.02047266922674553</v>
+        <v>0.1592447923289405</v>
       </c>
       <c r="C175" t="n">
-        <v>0.02066840708721429</v>
+        <v>0.1616697545562472</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1893372284097133</v>
+        <v>0.3232852774137178</v>
       </c>
       <c r="E175" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="176">
@@ -3423,16 +3423,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.02049075056213972</v>
+        <v>0.1593710776004526</v>
       </c>
       <c r="C176" t="n">
-        <v>0.02068085107021034</v>
+        <v>0.1616869781698499</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1756436005112288</v>
+        <v>0.3294014853647881</v>
       </c>
       <c r="E176" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="177">
@@ -3440,16 +3440,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.02048413921147585</v>
+        <v>0.1595115620228979</v>
       </c>
       <c r="C177" t="n">
-        <v>0.02068641653750092</v>
+        <v>0.1619319894484111</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1794778163228045</v>
+        <v>0.3285277413717781</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3242574257425743</v>
       </c>
     </row>
     <row r="178">
@@ -3457,16 +3457,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.02049994633294815</v>
+        <v>0.1589285549190309</v>
       </c>
       <c r="C178" t="n">
-        <v>0.02072178432717919</v>
+        <v>0.1616581146206175</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1796603980281176</v>
+        <v>0.326343381389253</v>
       </c>
       <c r="E178" t="n">
-        <v>0.1799379524301965</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="179">
@@ -3474,16 +3474,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0204771434411753</v>
+        <v>0.1591914093328847</v>
       </c>
       <c r="C179" t="n">
-        <v>0.02066803514026105</v>
+        <v>0.161805299775941</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1834946138396933</v>
+        <v>0.3315858453473132</v>
       </c>
       <c r="E179" t="n">
-        <v>0.1685625646328852</v>
+        <v>0.3539603960396039</v>
       </c>
     </row>
     <row r="180">
@@ -3491,16 +3491,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02051605550615593</v>
+        <v>0.1593017689883709</v>
       </c>
       <c r="C180" t="n">
-        <v>0.02067498525138944</v>
+        <v>0.1617336635078703</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1763739273324813</v>
+        <v>0.3320227173438183</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1664943123061013</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="181">
@@ -3508,16 +3508,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02049747393141652</v>
+        <v>0.1594586740765307</v>
       </c>
       <c r="C181" t="n">
-        <v>0.02065318985842168</v>
+        <v>0.1617445051670074</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1761913456271681</v>
+        <v>0.3245958934032329</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.344059405940594</v>
       </c>
     </row>
     <row r="182">
@@ -3525,16 +3525,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02050171441636806</v>
+        <v>0.1590474061667919</v>
       </c>
       <c r="C182" t="n">
-        <v>0.02069894562009722</v>
+        <v>0.1617074289492198</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1809384699653095</v>
+        <v>0.3162953254696374</v>
       </c>
       <c r="E182" t="n">
-        <v>0.172699069286453</v>
+        <v>0.3341584158415842</v>
       </c>
     </row>
     <row r="183">
@@ -3542,16 +3542,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02048398002029158</v>
+        <v>0.1594687323603365</v>
       </c>
       <c r="C183" t="n">
-        <v>0.02065703750122339</v>
+        <v>0.1615421729428428</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1805733065546832</v>
+        <v>0.3416339012669288</v>
       </c>
       <c r="E183" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3737623762376238</v>
       </c>
     </row>
     <row r="184">
@@ -3559,16 +3559,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0204427309854086</v>
+        <v>0.1590219462911288</v>
       </c>
       <c r="C184" t="n">
-        <v>0.02067717234604061</v>
+        <v>0.1620232484170369</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1858681760087639</v>
+        <v>0.3328964613368283</v>
       </c>
       <c r="E184" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3292079207920792</v>
       </c>
     </row>
     <row r="185">
@@ -3576,16 +3576,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02046932180433772</v>
+        <v>0.1593446218305164</v>
       </c>
       <c r="C185" t="n">
-        <v>0.02067010966129601</v>
+        <v>0.1616597984518324</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1807558882599964</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="E185" t="n">
-        <v>0.1809720785935884</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="186">
@@ -3593,16 +3593,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.020498524701526</v>
+        <v>0.1591575522389677</v>
       </c>
       <c r="C186" t="n">
-        <v>0.02066033473238349</v>
+        <v>0.1616233714989253</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1858681760087639</v>
+        <v>0.3350808213193534</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1675284384694933</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="187">
@@ -3610,16 +3610,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02048567283985227</v>
+        <v>0.1591387821568383</v>
       </c>
       <c r="C187" t="n">
-        <v>0.02067486522719264</v>
+        <v>0.1615808542285647</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1765565090377944</v>
+        <v>0.3219746614242027</v>
       </c>
       <c r="E187" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3267326732673267</v>
       </c>
     </row>
     <row r="188">
@@ -3627,16 +3627,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02048438874094985</v>
+        <v>0.1590688969526026</v>
       </c>
       <c r="C188" t="n">
-        <v>0.02066584653221071</v>
+        <v>0.1617590997900282</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1820339601971882</v>
+        <v>0.3337702053298384</v>
       </c>
       <c r="E188" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3737623762376238</v>
       </c>
     </row>
     <row r="189">
@@ -3644,16 +3644,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.02044609327648961</v>
+        <v>0.1592470486130979</v>
       </c>
       <c r="C189" t="n">
-        <v>0.02065595996100456</v>
+        <v>0.1618347678865705</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1829468687237539</v>
+        <v>0.3307121013543032</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1644260599793175</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="190">
@@ -3661,16 +3661,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.02051687229771254</v>
+        <v>0.1592931341793802</v>
       </c>
       <c r="C190" t="n">
-        <v>0.02065105480141938</v>
+        <v>0.1618600168398448</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1738177834580975</v>
+        <v>0.3158584534731324</v>
       </c>
       <c r="E190" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3193069306930693</v>
       </c>
     </row>
     <row r="191">
@@ -3678,16 +3678,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.02045569072889034</v>
+        <v>0.1592138467563523</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0206401749746874</v>
+        <v>0.1617695667913982</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1811210516706226</v>
+        <v>0.3307121013543032</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="192">
@@ -3695,16 +3695,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02048003411483626</v>
+        <v>0.1591597265667385</v>
       </c>
       <c r="C192" t="n">
-        <v>0.02068189566489309</v>
+        <v>0.1616412294762475</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1867810845353296</v>
+        <v>0.326343381389253</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1654601861427094</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="193">
@@ -3712,16 +3712,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02046042743550484</v>
+        <v>0.1592635069456365</v>
       </c>
       <c r="C193" t="n">
-        <v>0.02066207444295287</v>
+        <v>0.1614413687161037</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1840423589556326</v>
+        <v>0.3267802533857579</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3589108910891089</v>
       </c>
     </row>
     <row r="194">
@@ -3729,16 +3729,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02048424017334054</v>
+        <v>0.1589509741299682</v>
       </c>
       <c r="C194" t="n">
-        <v>0.02064532705117017</v>
+        <v>0.1616975963115692</v>
       </c>
       <c r="D194" t="n">
-        <v>0.180208143144057</v>
+        <v>0.3232852774137178</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="195">
@@ -3746,16 +3746,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.020483335090238</v>
+        <v>0.1591305327084329</v>
       </c>
       <c r="C195" t="n">
-        <v>0.02071688370779157</v>
+        <v>0.1615687991891588</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1860507577140771</v>
+        <v>0.3346439493228484</v>
       </c>
       <c r="E195" t="n">
-        <v>0.1758014477766288</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="196">
@@ -3763,16 +3763,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02044918407621079</v>
+        <v>0.1591838652061092</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0206871444825083</v>
+        <v>0.16142595240048</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1867810845353296</v>
+        <v>0.3250327653997379</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1685625646328852</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="197">
@@ -3780,16 +3780,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02046190236890039</v>
+        <v>0.15942115129696</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0206571682356298</v>
+        <v>0.1614725057567869</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1834946138396933</v>
+        <v>0.3315858453473132</v>
       </c>
       <c r="E197" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.3688118811881188</v>
       </c>
     </row>
     <row r="198">
@@ -3797,16 +3797,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.02048608976914439</v>
+        <v>0.1591669755677382</v>
       </c>
       <c r="C198" t="n">
-        <v>0.02065849187783897</v>
+        <v>0.1618666734014239</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1811210516706226</v>
+        <v>0.3346439493228484</v>
       </c>
       <c r="E198" t="n">
-        <v>0.1737331954498449</v>
+        <v>0.297029702970297</v>
       </c>
     </row>
     <row r="199">
@@ -3814,16 +3814,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.02047708805997011</v>
+        <v>0.1591576486825943</v>
       </c>
       <c r="C199" t="n">
-        <v>0.02067891682963818</v>
+        <v>0.1615964344569615</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1776519992696732</v>
+        <v>0.309742245522062</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1768355739400207</v>
+        <v>0.3564356435643564</v>
       </c>
     </row>
     <row r="200">
@@ -3831,16 +3831,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.02047142990713203</v>
+        <v>0.1588732538123926</v>
       </c>
       <c r="C200" t="n">
-        <v>0.02069290762301534</v>
+        <v>0.1614988744258881</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1829468687237539</v>
+        <v>0.3254696373962429</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1830403309203723</v>
+        <v>0.3465346534653465</v>
       </c>
     </row>
     <row r="201">
@@ -3848,16 +3848,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.02047588325343853</v>
+        <v>0.1594062033626768</v>
       </c>
       <c r="C201" t="n">
-        <v>0.02065815066453069</v>
+        <v>0.1615260456289564</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1855030125981377</v>
+        <v>0.327217125382263</v>
       </c>
       <c r="E201" t="n">
-        <v>0.1664943123061013</v>
+        <v>0.3613861386138614</v>
       </c>
     </row>
     <row r="202">
@@ -3865,16 +3865,5116 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.02047783651844014</v>
+        <v>0.1591890139712228</v>
       </c>
       <c r="C202" t="n">
-        <v>0.02066199888940901</v>
+        <v>0.1615640478474753</v>
       </c>
       <c r="D202" t="n">
-        <v>0.1840423589556326</v>
+        <v>0.345565749235474</v>
       </c>
       <c r="E202" t="n">
-        <v>0.1747673216132368</v>
+        <v>0.3762376237623762</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.1590504956742128</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.1615897289344243</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.327217125382263</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.3663366336633663</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.1590587062140306</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.1615049157823835</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.3267802533857579</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.1592946549256643</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.1615539108003889</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.3259065093927479</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1592130271924866</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.1616454124450684</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.3302752293577982</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.1589603382680151</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.1615774631500244</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.3202271734381826</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.1590076395206981</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.1613809147051402</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3311489733508082</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.3688118811881188</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.159338624527057</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1615651271172932</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.3302752293577982</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.158910368465715</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1616810645375933</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.3250327653997379</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.3737623762376238</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.1590136364102364</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.1616786143609456</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.3307121013543032</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.3341584158415842</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.1589888719220956</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.1614024702991758</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.3259065093927479</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.3663366336633663</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.159132426397668</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.161391447697367</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.3311489733508082</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.1588315260079172</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.1615205407142639</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.3241590214067278</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.1590435811214977</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.1613870561122894</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.3237221494102228</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.1592054590582848</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.161470992224557</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.3324595893403233</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.1590178141163455</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.1613183383430754</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.3433813892529489</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.1588845973213514</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1613581372158868</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.3158584534731324</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.159182533621788</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.1613738962582179</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.3189165574486675</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.1587939605944687</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.1613828497273581</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.3232852774137178</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.1591095924377441</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.1614944934844971</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.3368283093053736</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.1588991685873932</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.1614588413919721</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.3259065093927479</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.1590688729451762</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.1614022701978683</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.328090869375273</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.3663366336633663</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.1590276261170705</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1613531538418361</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.3154215814766274</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.3663366336633663</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.1591315045952797</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1616225263902119</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.3311489733508082</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.1590187044607269</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1613373862845557</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.3176059414591524</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.1592695828941133</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1614543540137155</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.3411970292704238</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.3688118811881188</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.1588507853448391</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1614264271089009</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.3254696373962429</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.3118811881188119</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.1591779328882694</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1613057830504009</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.3245958934032329</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.1587948434882694</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1615393246923174</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.3377020532983836</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.1586676405535804</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.1614812506096704</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.3688118811881188</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.1590202202399572</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1615719390766961</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3158584534731324</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.1588665909237332</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1613442706210273</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.3285277413717781</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.1588751748204231</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1615604140928813</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.3390126692878986</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.1590035214192337</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1614180590425219</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.3237221494102228</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1590236057009962</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.161346754857472</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.3385757972913936</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.3688118811881188</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.1589557549191846</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1611929472003664</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.3219746614242027</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.1587834875616762</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1613339973347528</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.3206640454346876</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.1589051803780926</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1614854016474315</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.344692005242464</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.1591506058143245</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.161537521651813</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.3307121013543032</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.3069306930693069</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.1589503549039364</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.1611445120402745</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.3145478374836173</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.1590133354895645</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.1613407092435019</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.3245958934032329</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.1590731077724033</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1612798869609833</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.3381389252948886</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.1587897878554132</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.1613461737121855</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.3298383573612931</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.158783225963513</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.1614170862095697</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.3346439493228484</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.1590669776002566</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.161150866321155</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.3394495412844037</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.3688118811881188</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.1588662825524807</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.1613162904977798</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.3324595893403233</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.159017987549305</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.1616091196026121</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.3390126692878986</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.2995049504950495</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.1590011831786897</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.1614179568631308</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.326343381389253</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.1588396781848537</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.1613432658570153</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.344692005242464</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.158686827454302</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.1612372313226972</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.3250327653997379</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.1589269762237867</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.1612242162227631</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.326343381389253</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.158824496385124</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.1613166885716575</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.3197903014416776</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.1586789443261094</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.1613569451229913</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.3394495412844037</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.3663366336633663</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.1589779352976216</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.1613266148737499</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.3228484054172128</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.1586761292484072</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.1618492241416659</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.3315858453473132</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.297029702970297</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.1590771832399898</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.16133927660329</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.327653997378768</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.1588001391953892</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.1611862438065665</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.3219746614242027</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.1589333183235592</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1611021671976362</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.3346439493228484</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.1587694440450933</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.1612221130302974</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.3228484054172128</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.1587521769106388</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.1612314518008913</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.3473132372214941</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.3663366336633663</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.1587028917339113</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.1613110240016665</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.3302752293577982</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.1585427725480663</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.1611198591334479</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.327653997378768</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.3688118811881188</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.1589064701563782</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.1612339104924883</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.3442551332459589</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.1586444228887558</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.1610765308141708</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.3298383573612931</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.1586363419062561</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.1612583718129567</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.3254696373962429</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.3712871287128713</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.1588143126832114</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.1613591696534838</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.3294014853647881</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.3316831683168317</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.1586157389812999</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.1612534523010254</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.3315858453473132</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.1586796823475096</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.1614197875772204</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.3372651813018785</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.1587105484472381</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.1612518344606672</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.3377020532983836</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.1588160772290495</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.1612161525658199</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.3368283093053736</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.1585745645893945</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.1613434340272631</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.3224115334207077</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.3316831683168317</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.1586963356369072</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.1611534889255251</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.3315858453473132</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.3712871287128713</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.1588440616097715</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.1617214104958943</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.3560506771515946</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.297029702970297</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.1587097023924192</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.1613518340247018</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.326343381389253</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.1588030668596427</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1612372675112315</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.3171690694626474</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.1588926340142886</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.161268161875861</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.3438182612494539</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.1587978704935974</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.1613231343882424</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.3320227173438183</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.3217821782178218</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.158578597009182</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1611801109143666</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.3197903014416776</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.3688118811881188</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.1585816654066245</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.161208770104817</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3411970292704238</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.3316831683168317</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.158813929806153</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1613361388444901</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.3302752293577982</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.1585268783900473</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.161199152469635</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.1584301495717632</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1612910670893533</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.3688118811881188</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.1589338477287028</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.161257192492485</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.3307121013543032</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.1588272787630558</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.1612743160554341</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.3464394932284841</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.3762376237623762</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.1586820830901464</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.1612980599914278</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.327653997378768</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.1589215112229188</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.16150777893407</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.3429445172564439</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.1586997239953942</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.1614193724734443</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.3324595893403233</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.1585668209526274</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1613939276763371</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.3302752293577982</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.1587130824724833</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.161099978855678</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.3438182612494539</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.1584914438426495</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.1613335247550692</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3302752293577982</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.1586845310197936</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.1613704689911434</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.3372651813018785</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.1587458654410309</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.1611345452921731</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.3787128712871287</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.1586762000289228</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.1613146790436336</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.3363914373088685</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.1588009873198138</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.1612926125526428</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.3381389252948886</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.1583410480784045</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.1610790831702096</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.3237221494102228</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.1586029798620277</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.1612173425299781</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.3372651813018785</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.3688118811881188</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.1587843489315775</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.1612415015697479</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.3350808213193534</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.1583303776052263</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1610976053135736</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.3407601572739187</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.1587236171795262</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.1612614818981715</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.3591087811271297</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.3143564356435644</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.1585706753863229</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.1611780247517995</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.3250327653997379</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.3316831683168317</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.1585568665630288</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.1612601471798761</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.1588525958359241</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.1611133792570659</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.3324595893403233</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.3341584158415842</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.1580344047397375</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.1611270585230418</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.3315858453473132</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.3762376237623762</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.1584386101199521</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.1612155224595751</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.3245958934032329</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.1587814593480693</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.161098199231284</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.3425076452599388</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.1584744614859422</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.1613276089940752</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.3416339012669288</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.1586265203853448</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.1611210916723524</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.3394495412844037</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.1583364324437248</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.1611686604363578</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.3315858453473132</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.1584798606733481</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.1612960760082517</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.3425076452599388</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.1584149826731947</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.1612368651798793</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.3381389252948886</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.3712871287128713</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.1583378323250347</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.1610782359327589</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.3337702053298384</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.158356387168169</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.1615177031074251</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.3551769331585846</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.3094059405940594</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.1588639385170407</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.1613323369196483</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.3328964613368283</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.1583630243937174</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.1611873358488083</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.3311489733508082</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.1585171065396733</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.1612126124756677</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.328090869375273</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.1585536644690567</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.1612584676061358</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.3473132372214941</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.1587044070992205</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.1614743492433003</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.3143564356435644</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.1581846417652236</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1612692390169416</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.327653997378768</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.1586123949123753</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.1615315697022847</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.3407601572739187</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.1582475395666229</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.1623155559812273</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.3403232852774137</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.2920792079207921</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.1581836587025059</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.1612626825060163</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.3315858453473132</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.1583802240590254</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.1611639601843698</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.3311489733508082</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.1585015323426988</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.1611211534057345</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.3420707732634338</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.1584022719826963</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.1612495992864881</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.3302752293577982</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.1582861170172691</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.1614506542682648</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.3350808213193534</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.3316831683168317</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.1585935735040241</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.1613365454333169</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.3407601572739187</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.1581802372303274</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.1611977006707873</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.3341584158415842</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.1581474977234999</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.1613642552069255</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.3390126692878986</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.1582060712907049</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.1612827160528728</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.3411970292704238</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.1584978484445148</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.1613006676946367</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.158190682116482</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.161175006202289</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.3320227173438183</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.1584411867790752</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.1612972425562995</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.345128877238969</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.1584801690446006</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1611559752907072</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.3372651813018785</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.3712871287128713</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.1583241431249512</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.1616871612412589</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.3407601572739187</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.3069306930693069</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.15846554396881</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.161455009664808</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.3411970292704238</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.1583741522497601</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1617117843457631</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.3416339012669288</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.2945544554455445</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.1583663150668144</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1612111521618707</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.1582669276330206</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1613302784306662</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.3315858453473132</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.1582798585295677</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.1610646439450128</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.328090869375273</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.1581226959824562</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.1615080173526491</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.3556138051550896</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.3094059405940594</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.1582963454226653</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.1613503375223705</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.1583848036825657</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.1611902437039784</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.3372651813018785</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.3663366336633663</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.1581670256952445</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.1611920148134232</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.3407601572739187</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.1580804246995184</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.162020919578416</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.3499344692005242</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.2945544554455445</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.1584914599855741</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.1615346585001264</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.3442551332459589</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.1582045662734244</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.1612739477838789</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.3324595893403233</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.15836243207256</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.1612878314086369</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.3486238532110092</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.1582648133238157</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.1612190710646766</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.3372651813018785</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.1582596004009247</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.1614926265818732</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.3143564356435644</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.1582452096045017</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.161184549331665</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.3372651813018785</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.1584205163849725</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.1613118371793202</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.3394495412844037</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.1581918175021807</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.1611240868057524</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.3425076452599388</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.1582430969509813</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.1613501054900033</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.3289646133682831</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.1581521845526165</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.1613376864365169</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.3411970292704238</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.1579847012956937</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.1612907371350697</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.3342070773263434</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.1582391924328274</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.1610367489712579</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.3337702053298384</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.1582317493028111</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.1613666181053434</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.327217125382263</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.157959976957904</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.1612212594066347</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.3460026212319791</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.158066196160184</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.1612165421247482</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.3372651813018785</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.1582004535529349</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.1611474645989282</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.3394495412844037</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.1581884990963671</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.161147198506764</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.3460026212319791</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.3638613861386139</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.1582799996766779</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.1614147488559995</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.328090869375273</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.1584981750282976</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.1611602050917489</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.3486238532110092</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.1583054715560542</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.1613581329584122</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.345128877238969</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.1583093201948537</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.1610917172261647</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.3346439493228484</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.1580224691165818</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.161365270614624</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.3324595893403233</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.1580994013282988</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.1611826355968203</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.3477501092179991</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.1581310104164812</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.161330840417317</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.3368283093053736</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.1581218656566408</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.1615985376494271</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.3381389252948886</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.3069306930693069</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.1579872779548168</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.1611112100737435</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.3359545653123635</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.1579364360206657</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.1612113692930766</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.3328964613368283</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.158301307923264</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.1611464768648148</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.3442551332459589</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.1581186312768194</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.1612307493175779</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.3429445172564439</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.1581745979686578</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.1614524019615991</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.3298383573612931</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.1580554607013861</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.1611514538526535</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.3407601572739187</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.1579481963482168</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.1613360792398453</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.3433813892529489</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.3341584158415842</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.1583257392048836</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.1618138871022633</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.3069306930693069</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.1577098882860608</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.161100053361484</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.328090869375273</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.1578555516898632</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.1621745888675962</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.3464394932284841</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.297029702970297</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.1582709124518765</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.1622844466141292</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.3254696373962429</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.2871287128712871</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.1584414322343138</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.1613978275230953</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.3320227173438183</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.1585967863599459</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.1617228580372674</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.1581517048180103</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.1612279500280108</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.3390126692878986</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.1579693195720514</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.1611343324184418</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.3324595893403233</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.1580336309141583</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.1612503549882344</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.1582792608274354</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.1611464342900685</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.3368283093053736</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.1578313161929449</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.1612067754779543</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.1580467215842671</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.1612424233130046</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.3425076452599388</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.3316831683168317</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.1579072115321954</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.1614165412528174</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.3394495412844037</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.1579355568521553</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.1613524918045317</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.3315858453473132</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.1581321739488178</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.1612617054155895</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.327217125382263</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.15788918443852</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.1612079164811543</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.3377020532983836</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.1580025719271766</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.1623763271740505</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.3464394932284841</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.2945544554455445</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.1580974823898739</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.1616645583084651</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.3381389252948886</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.2995049504950495</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.1579747299353282</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.1613025878156935</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.3490607252075142</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.1579000548356109</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.1611579103129251</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.3346439493228484</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.1582112680706713</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.1615159149680819</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.3377020532983836</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.1579511194593377</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.1610967474324363</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.3363914373088685</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.1581723156074683</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.1619056910276413</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.3381389252948886</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.2920792079207921</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.1580157317221165</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.1620383773531233</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.3307121013543032</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.2920792079207921</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.1582195705009831</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.1612875823463712</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.3259065093927479</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.1579586726923784</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.1614028279270445</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.3359545653123635</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.3316831683168317</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.1579354376428657</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.1611751254115786</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.3381389252948886</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.1579243565599124</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.1610973647662572</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.3359545653123635</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.1581087940269046</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.1613243243524007</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.1579794925120142</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.1612453226532255</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.3403232852774137</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.1581686764127678</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.1613319899354662</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.3429445172564439</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.1579206908742587</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.1616200762135642</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.3390126692878986</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.3118811881188119</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.1579007651242945</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.1612082804952349</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.3442551332459589</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.157989696909984</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.1612873141254698</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.3320227173438183</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.1579402681026194</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.1611610736165728</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.1577782999310229</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.1613866005625044</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.3433813892529489</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.3143564356435644</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.1579353912836975</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.1615711876324245</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.3342070773263434</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.1581192807190948</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.1613174272435052</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.3468763652249891</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.157866487900416</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.1614989617041179</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.3324595893403233</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.3143564356435644</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.1579730274776618</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.1615178095442908</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.3202271734381826</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.1579637618528472</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.161296586905207</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.3442551332459589</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.1579219119416343</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.1614713945559093</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.3473132372214941</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.1578163666029771</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.1618836458240236</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.3350808213193534</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.3094059405940594</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.1579207066032622</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.161235300557954</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.3302752293577982</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.15778748691082</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.1613473381314959</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.3429445172564439</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.1578797226150831</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.161321833729744</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.3350808213193534</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.157803642253081</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.1611591194357191</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.3411970292704238</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.1578798455496629</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.1614314126116889</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.3503713411970293</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.1579564685622851</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.1614045628479549</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.3368283093053736</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.1579416679839293</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.1611682368176324</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.3442551332459589</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.3613861386138614</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.1581522992087735</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.1610205471515656</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.157977067761951</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.1614419051579067</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.3420707732634338</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.1577086030609078</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.161617745246206</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.3094059405940594</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.1579286472664939</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.1612890490463802</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.3298383573612931</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.1576153793268734</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.161523163318634</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.3298383573612931</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.3069306930693069</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.1576957640548547</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.1612317285367421</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.1578178310559856</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.1613196751901082</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.3363914373088685</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.1578763963447677</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.1612730409417834</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.3394495412844037</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.1578651058177153</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.1611959444625037</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.3411970292704238</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.1577045147617658</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.1616763238395963</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.3311489733508082</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.2920792079207921</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.1575953832103146</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.1612515492098672</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.3337702053298384</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.1578241185181671</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.1612003807510649</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.3433813892529489</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.1575059559610155</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.161246154989515</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.3394495412844037</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.1578761715855863</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.1614344673497336</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.3438182612494539</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.157704042063819</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.1616256641490119</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.3094059405940594</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.1576974209811952</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.1613508569342749</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.3525557011795544</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.1573364324867725</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.161101758480072</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.345128877238969</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.1581320969594849</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.1614524849823543</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.3464394932284841</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.15779759734869</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.1613179274967738</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.3294014853647881</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.3217821782178218</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.1579068178931872</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.1613403707742691</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.3342070773263434</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.3663366336633663</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.1578463833365175</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.1612547614744731</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.344692005242464</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.1577195330626435</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.1614511417491095</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.3407601572739187</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.157760983126031</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.1613259741238185</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.3442551332459589</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.1574948806729582</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.1611889515604292</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.3377020532983836</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.1577410838670201</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.1615382581949234</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.3381389252948886</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.1576251015067101</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.1620430541890008</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.3368283093053736</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.2896039603960396</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.1577874893943469</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.1612943240574428</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.3359545653123635</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0.3316831683168317</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.157590782476796</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.1616666167974472</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.3486238532110092</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.3193069306930693</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.1575099478165309</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.1613425314426422</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.3372651813018785</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.1576984624067942</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.1616257833583014</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.3438182612494539</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.3118811881188119</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.1575265361203088</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.1619149595499039</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.3407601572739187</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.3143564356435644</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.1576182105475002</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.1616837765489306</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.3363914373088685</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.157796245896154</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.1615321785211563</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.3473132372214941</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.157631694442696</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.1616733265774591</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.3368283093053736</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.3044554455445544</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.1578635577526357</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.1613868027925491</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.3381389252948886</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.1580886211660173</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.1615816397326333</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.3499344692005242</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.15772143089109</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.16135088460786</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.3503713411970293</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.3589108910891089</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.1578134774333901</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.1614347036395754</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.3346439493228484</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.1576564332677258</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.1614585433687483</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.3363914373088685</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.3118811881188119</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.1573439749578635</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.1612677808318819</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.3368283093053736</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.3663366336633663</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.1579652441044649</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.1611862799951009</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.3411970292704238</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.1577064531544844</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.1613617816141673</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.3346439493228484</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.1579346499509282</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.1612372887986047</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.1580233996113141</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.161196808729853</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.344692005242464</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.1576635845833355</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.1613791542393821</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.345565749235474</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.3465346534653465</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.1576711038748423</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.1613324987036841</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.3390126692878986</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.3316831683168317</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.1576128697229756</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.1614183251346861</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.3385757972913936</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.1578198667201731</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.1612430023295539</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.3407601572739187</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.3514851485148515</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.1577223427593708</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.1619735062122345</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.3350808213193534</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.2995049504950495</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.1576529753704866</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.1613256143672126</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.3385757972913936</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.3366336633663367</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.1577595435082912</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.1612633275134223</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.3508082131935343</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.1576087069180277</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.1612949711935861</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.3385757972913936</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.1575408582058218</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.1612278095313481</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.3481869812145041</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.1578548757566346</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.1614978185721806</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.3328964613368283</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.1580165355569786</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.1616488290684564</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.3359545653123635</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.3118811881188119</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.1574831729133924</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.1613167971372604</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.3368283093053736</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0.349009900990099</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.1577335562970903</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.1613491603306361</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.3385757972913936</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.3539603960396039</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.1578378118574619</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.1615043388945716</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.3433813892529489</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.3168316831683168</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.1574405055079195</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.1614892312458583</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.344059405940594</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.1579735974470774</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.1615707810435976</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.3328964613368283</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.3069306930693069</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.1578119330936008</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.1620319804974965</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.3460026212319791</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.3044554455445544</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.1575475252336926</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.1617909265416009</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.3355176933158585</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.3118811881188119</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.1576955575082037</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.1617990157433919</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.3398864132809087</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.3069306930693069</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.1575221063362228</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.1613936190094267</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.3460026212319791</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.3391089108910891</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.157564129266474</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.1616576313972473</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.3377020532983836</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.1574772803319825</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.1613460545028959</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.3385757972913936</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.3341584158415842</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.1572437812056806</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.1616528800555638</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.3390126692878986</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.3242574257425743</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.1577131073507998</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.1613830838884626</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.3359545653123635</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.3415841584158416</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.1577004318435987</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.1614219929490771</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.3292079207920792</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.1574045846031772</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.161703177860805</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.3315858453473132</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.3143564356435644</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.1579128251307541</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.1616849005222321</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.3363914373088685</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0.3143564356435644</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.1575960525208049</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.1622280648776463</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.3442551332459589</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0.3094059405940594</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.1576527795857853</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.1615862846374512</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.3534294451725644</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.3217821782178218</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.1574934162199497</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.1617895215749741</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.3416339012669288</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.3118811881188119</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.1572751017908255</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.1615105590650014</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.345565749235474</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.3366336633663367</v>
       </c>
     </row>
   </sheetData>

--- a/FC_figure_bank/mRNALossAccDF.xlsx
+++ b/FC_figure_bank/mRNALossAccDF.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.167599878328688</v>
+        <v>0.172153205556028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1696108778317769</v>
+        <v>0.1717651089032491</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2292343387470998</v>
+        <v>0.3848653667595172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2304832713754647</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1871091657701661</v>
+        <v>0.2223335149533608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1685259458091524</v>
+        <v>0.179186859064632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2412993039443155</v>
+        <v>0.1457753017641597</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2434944237918216</v>
+        <v>0.1001855287569573</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1787533089518547</v>
+        <v>0.2090244976913228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.165575784113672</v>
+        <v>0.1770335303412544</v>
       </c>
       <c r="D4" t="n">
-        <v>0.268677494199536</v>
+        <v>0.159238625812442</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2936802973977695</v>
+        <v>0.1465677179962894</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17859656889649</v>
+        <v>0.2058596107013085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1656305525037977</v>
+        <v>0.1771240217818154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2696055684454756</v>
+        <v>0.1685236768802229</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.1669758812615955</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1744500341660836</v>
+        <v>0.2010508784476449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1646174821588728</v>
+        <v>0.1751685986916224</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2821345707656612</v>
+        <v>0.1708449396471681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3141263940520446</v>
+        <v>0.1651205936920223</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1736229767694193</v>
+        <v>0.1941078576971503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1649004071950912</v>
+        <v>0.1768968684805764</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2723897911832946</v>
+        <v>0.1861652739090065</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2825278810408922</v>
+        <v>0.1799628942486085</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1722165587193826</v>
+        <v>0.1910896546700422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1647042002942827</v>
+        <v>0.1710723423295551</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2844547563805104</v>
+        <v>0.2089136490250696</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.2801484230055659</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.171888575396117</v>
+        <v>0.1850137438844232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164069480366177</v>
+        <v>0.1730293167961968</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2928074245939675</v>
+        <v>0.2270194986072423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3104089219330855</v>
+        <v>0.2133580705009276</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1691402744720964</v>
+        <v>0.1861177963369033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1641498506069183</v>
+        <v>0.1716357982820935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3169373549883991</v>
+        <v>0.2172701949860724</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3066914498141264</v>
+        <v>0.1966604823747681</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1669188742251957</v>
+        <v>0.1820438565576778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1641098343663746</v>
+        <v>0.1690461950169669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2974477958236659</v>
+        <v>0.2381615598885794</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3066914498141264</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1680262575254721</v>
+        <v>0.1794597712509772</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1642445623874664</v>
+        <v>0.1691366682449977</v>
       </c>
       <c r="D12" t="n">
-        <v>0.288631090487239</v>
+        <v>0.2650882079851439</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3104089219330855</v>
+        <v>0.287569573283859</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1699467336430269</v>
+        <v>0.1809432681869058</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1643777986367544</v>
+        <v>0.1697560780578189</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2923433874709977</v>
+        <v>0.2641597028783658</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2955390334572491</v>
+        <v>0.2393320964749536</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1681272168369854</v>
+        <v>0.1758442998808973</v>
       </c>
       <c r="C14" t="n">
-        <v>0.16402434806029</v>
+        <v>0.1693867047627767</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2965197215777262</v>
+        <v>0.2623026926648097</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.2393320964749536</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1651577822425786</v>
+        <v>0.17725109352785</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1633080657985475</v>
+        <v>0.1679290417167875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3053364269141531</v>
+        <v>0.2780872794800371</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.2949907235621521</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1655434282387004</v>
+        <v>0.1725785315913313</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1639043539762497</v>
+        <v>0.1678175661298964</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3146171693735499</v>
+        <v>0.2855153203342619</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3191094619666048</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1648175637511646</v>
+        <v>0.1746009307749131</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1636144121487935</v>
+        <v>0.1667335745361116</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3178654292343387</v>
+        <v>0.2878365831012071</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3085501858736059</v>
+        <v>0.3172541743970315</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1655028909444809</v>
+        <v>0.1736569316948161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.163917750120163</v>
+        <v>0.1671187000142204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3238979118329466</v>
+        <v>0.2920148560817085</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3141263940520446</v>
+        <v>0.3339517625231911</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1630083944867639</v>
+        <v>0.1711001944016008</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1634154965480169</v>
+        <v>0.1660830246077644</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3378190255220417</v>
+        <v>0.2924791086350975</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3061224489795918</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1636343826265896</v>
+        <v>0.1716301612117711</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1638418717516793</v>
+        <v>0.1658980233801736</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3350348027842228</v>
+        <v>0.3050139275766017</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3116883116883117</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1641179678194663</v>
+        <v>0.1716203549328972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1639936053090625</v>
+        <v>0.1663321571217643</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3178654292343387</v>
+        <v>0.3124419684308264</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.2949907235621521</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1623324374942219</v>
+        <v>0.1704812229556196</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1635424643754959</v>
+        <v>0.1649523658884896</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3220417633410673</v>
+        <v>0.3045496750232126</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3252788104089219</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1647662993739633</v>
+        <v>0.1705080766011687</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1641579733954536</v>
+        <v>0.1651570151249568</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3248259860788863</v>
+        <v>0.3152274837511606</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3821892393320965</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1643492522485116</v>
+        <v>0.1683384942657807</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1636368698543972</v>
+        <v>0.164725821879175</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3197215777262181</v>
+        <v>0.340297121634169</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3159851301115242</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1630557885064798</v>
+        <v>0.1707562015337103</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1638935638798608</v>
+        <v>0.1646856715281804</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3234338747099768</v>
+        <v>0.3310120705663881</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2936802973977695</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.160914874252151</v>
+        <v>0.1691631346064455</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1640604303942786</v>
+        <v>0.1640962180164125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3183294663573086</v>
+        <v>0.3365831012070566</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3487940630797773</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1625543368213317</v>
+        <v>0.1686685019556214</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1632746143473519</v>
+        <v>0.1639028108782238</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3387470997679815</v>
+        <v>0.3384401114206128</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1627406096633743</v>
+        <v>0.1673093981602613</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1635531617535485</v>
+        <v>0.1642013887564341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3322505800464037</v>
+        <v>0.340297121634169</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3327137546468402</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.161950871348381</v>
+        <v>0.1675702026661705</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1631611916753981</v>
+        <v>0.1633740862210592</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3317865429234338</v>
+        <v>0.3203342618384401</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1614303904421189</v>
+        <v>0.1667803197222597</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1626739700635274</v>
+        <v>0.1635844061772029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3206496519721578</v>
+        <v>0.3328690807799443</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3197026022304832</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1619380677447599</v>
+        <v>0.1670879322816344</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1631052311923769</v>
+        <v>0.1638480689790514</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3359628770301624</v>
+        <v>0.3458681522748375</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3104089219330855</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1608764314476182</v>
+        <v>0.1664404492167866</v>
       </c>
       <c r="C32" t="n">
-        <v>0.163274735212326</v>
+        <v>0.1632457590765423</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3271461716937355</v>
+        <v>0.3486536675951718</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3122676579925651</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1605343340950854</v>
+        <v>0.1678691878914833</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1631445636351903</v>
+        <v>0.1633374459213681</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3331786542923434</v>
+        <v>0.3542246982358403</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3327137546468402</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1625757204259143</v>
+        <v>0.1663290915243766</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1628007955021328</v>
+        <v>0.1628483053710726</v>
       </c>
       <c r="D34" t="n">
-        <v>0.331322505800464</v>
+        <v>0.3430826369545033</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3364312267657992</v>
+        <v>0.3562152133580705</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1598864806925549</v>
+        <v>0.1670176163315773</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1631689833270179</v>
+        <v>0.1626327998108334</v>
       </c>
       <c r="D35" t="n">
-        <v>0.334106728538283</v>
+        <v>0.3375116063138347</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1608429235570571</v>
+        <v>0.1667894865660106</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1631484727064768</v>
+        <v>0.1630608042081197</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3294663573085847</v>
+        <v>0.3365831012070566</v>
       </c>
       <c r="E36" t="n">
-        <v>0.328996282527881</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1609138798187761</v>
+        <v>0.1656140549217953</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1635535309712092</v>
+        <v>0.1633732153309716</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3443155452436195</v>
+        <v>0.3416898792943361</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1609978504917201</v>
+        <v>0.1653256858972942</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1634438087542852</v>
+        <v>0.1627239220672184</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3345707656612529</v>
+        <v>0.3560817084493965</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1608506695312612</v>
+        <v>0.1659037234152065</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1633819076750014</v>
+        <v>0.1627973119417826</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3410672853828307</v>
+        <v>0.3579387186629526</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3141263940520446</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1605300587766311</v>
+        <v>0.166059644344975</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1631500025590261</v>
+        <v>0.1626793311701881</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3359628770301624</v>
+        <v>0.3416898792943361</v>
       </c>
       <c r="E40" t="n">
-        <v>0.345724907063197</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1616887647439452</v>
+        <v>0.1658786469522645</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1631477822860082</v>
+        <v>0.1631182216935688</v>
       </c>
       <c r="D41" t="n">
-        <v>0.331322505800464</v>
+        <v>0.3542246982358403</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3122676579925651</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1609305577243076</v>
+        <v>0.1657946867977872</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1630526963207457</v>
+        <v>0.1630517343680064</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3327146171693736</v>
+        <v>0.361652739090065</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1602452051113634</v>
+        <v>0.1655262910267886</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1631265679995219</v>
+        <v>0.1633852140771018</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3294663573085847</v>
+        <v>0.3546889507892294</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3364312267657992</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1605967445408597</v>
+        <v>0.1639109784189393</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1632312287886938</v>
+        <v>0.1630477276113298</v>
       </c>
       <c r="D44" t="n">
-        <v>0.34292343387471</v>
+        <v>0.3635097493036212</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1597680594114696</v>
+        <v>0.1641325516735806</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1636670860979292</v>
+        <v>0.1633550044563082</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3512761020881671</v>
+        <v>0.3565459610027855</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3345724907063197</v>
+        <v>0.3821892393320965</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1603972271961324</v>
+        <v>0.1636513795922784</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1631560424963633</v>
+        <v>0.1630831857522329</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3368909512761021</v>
+        <v>0.3639740018570102</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1605893750401104</v>
+        <v>0.1655608779367279</v>
       </c>
       <c r="C47" t="n">
-        <v>0.163581618004375</v>
+        <v>0.1630372371938494</v>
       </c>
       <c r="D47" t="n">
-        <v>0.334106728538283</v>
+        <v>0.3472609099350046</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1594319041160976</v>
+        <v>0.1624029887949719</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1633779025740094</v>
+        <v>0.1624791241354412</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3406032482598608</v>
+        <v>0.3732590529247911</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1598084634717773</v>
+        <v>0.1637724971070009</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1632504959901174</v>
+        <v>0.162459467848142</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3322505800464037</v>
+        <v>0.3639740018570102</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3252788104089219</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1598333830342573</v>
+        <v>0.1646756503511878</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1633026185962889</v>
+        <v>0.1624230411317613</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3308584686774942</v>
+        <v>0.3579387186629526</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1589017058996593</v>
+        <v>0.1641156598925591</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1627585705783632</v>
+        <v>0.163263898756769</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3494199535962877</v>
+        <v>0.3584029712163417</v>
       </c>
       <c r="E51" t="n">
-        <v>0.328996282527881</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.160594926599194</v>
+        <v>0.1644435568767435</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1632257286045286</v>
+        <v>0.1624440749486288</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3554524361948956</v>
+        <v>0.3667595171773445</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3252788104089219</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1584612056612968</v>
+        <v>0.1643356777289335</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1631700678004159</v>
+        <v>0.1627561930153105</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3587006960556844</v>
+        <v>0.3714020427112349</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1592778703745674</v>
+        <v>0.1652036922819474</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1630860616763433</v>
+        <v>0.1629659252034293</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3480278422273782</v>
+        <v>0.3570102135561746</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1592708729645785</v>
+        <v>0.1651933491230011</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1630201091368993</v>
+        <v>0.1627712382210625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3396751740139211</v>
+        <v>0.3602599814298978</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160946971791632</v>
+        <v>0.1645814592347425</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1632030225462384</v>
+        <v>0.1627914756536484</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3354988399071926</v>
+        <v>0.3519034354688951</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3327137546468402</v>
+        <v>0.3617810760667903</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1593917643322664</v>
+        <v>0.1639366092927316</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1632700612147649</v>
+        <v>0.1632461067703035</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3368909512761021</v>
+        <v>0.3546889507892294</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3420074349442379</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1581905992592082</v>
+        <v>0.1643186947878669</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1633321675989363</v>
+        <v>0.1628900120655696</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3387470997679815</v>
+        <v>0.3556174558960074</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3141263940520446</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1604490784161231</v>
+        <v>0.1634228974580765</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1633887853887346</v>
+        <v>0.1618862483236525</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3470997679814385</v>
+        <v>0.3639740018570102</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3159851301115242</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1584506771143745</v>
+        <v>0.163673258441336</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1632152381870482</v>
+        <v>0.1629036962985992</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3563805104408352</v>
+        <v>0.3695450324976787</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1584386137478492</v>
+        <v>0.1640163489124354</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1634859227471882</v>
+        <v>0.162590064936214</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3577726218097448</v>
+        <v>0.351439182915506</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3252788104089219</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1590265627293026</v>
+        <v>0.1633558255784652</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1632240414619446</v>
+        <v>0.1623842120170593</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3531322505800464</v>
+        <v>0.3602599814298978</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3197026022304832</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1591213744352846</v>
+        <v>0.1631906597929842</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1631832652621799</v>
+        <v>0.1622002224127451</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3410672853828307</v>
+        <v>0.3788300835654596</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3438661710037175</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1586208821219557</v>
+        <v>0.1623541563749313</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1629828843805525</v>
+        <v>0.162080286277665</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3638051044083527</v>
+        <v>0.3732590529247911</v>
       </c>
       <c r="E64" t="n">
-        <v>0.328996282527881</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1582066745442503</v>
+        <v>0.1635265122441684</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1634630494647556</v>
+        <v>0.1623673886060715</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3540603248259861</v>
+        <v>0.3690807799442897</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3562152133580705</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1591419161242597</v>
+        <v>0.1631078360711827</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1629834903611077</v>
+        <v>0.1622185160716375</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3526682134570766</v>
+        <v>0.3658310120705664</v>
       </c>
       <c r="E66" t="n">
-        <v>0.328996282527881</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.15884409318952</v>
+        <v>0.1624492542708621</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1628267914056778</v>
+        <v>0.1621308442619112</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3415313225058005</v>
+        <v>0.3783658310120706</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.157358367653454</v>
+        <v>0.1625632748884313</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1627386162678401</v>
+        <v>0.1621359371476703</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3675174013921114</v>
+        <v>0.3718662952646239</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1590669742401908</v>
+        <v>0.1636954033199479</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1625584397051069</v>
+        <v>0.1623361557722092</v>
       </c>
       <c r="D69" t="n">
-        <v>0.362877030162413</v>
+        <v>0.3649025069637883</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1585449471193201</v>
+        <v>0.1624643596656182</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1628837005959617</v>
+        <v>0.1621373660034603</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3512761020881671</v>
+        <v>0.3695450324976787</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1587779938298113</v>
+        <v>0.1631786297349369</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1627530737055672</v>
+        <v>0.1621357881360584</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3438515081206496</v>
+        <v>0.3570102135561746</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1580180573989363</v>
+        <v>0.1627137932707282</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1635405967632929</v>
+        <v>0.1623242778910531</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3651972157772622</v>
+        <v>0.3714020427112349</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1586630370687036</v>
+        <v>0.1629605008398785</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1632339441114002</v>
+        <v>0.1623553153541353</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3503480278422274</v>
+        <v>0.3769730733519034</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1578182227471296</v>
+        <v>0.1621704233043334</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1628996481498083</v>
+        <v>0.1621537738376194</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3651972157772622</v>
+        <v>0.3881151346332405</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3487940630797773</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1581912351881757</v>
+        <v>0.1625956625622862</v>
       </c>
       <c r="C75" t="n">
-        <v>0.163272875878546</v>
+        <v>0.1623476015196906</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3526682134570766</v>
+        <v>0.3779015784586815</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1585457675597247</v>
+        <v>0.1641805329743554</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1632265200217565</v>
+        <v>0.162240712179078</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3480278422273782</v>
+        <v>0.361652739090065</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3345724907063197</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1576191541903159</v>
+        <v>0.1633715572602609</v>
       </c>
       <c r="C77" t="n">
-        <v>0.16272867222627</v>
+        <v>0.1622601929638121</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3614849187935035</v>
+        <v>0.3727948003714021</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3197026022304832</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.158387472086093</v>
+        <v>0.1632018829969799</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1630630840857824</v>
+        <v>0.1623699184921053</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3605568445475638</v>
+        <v>0.3597957288765088</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1588480384910808</v>
+        <v>0.1632007334162207</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1635029166936874</v>
+        <v>0.1620260377724966</v>
       </c>
       <c r="D79" t="n">
-        <v>0.362877030162413</v>
+        <v>0.3709377901578459</v>
       </c>
       <c r="E79" t="n">
-        <v>0.328996282527881</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1582729102057569</v>
+        <v>0.1617646072717274</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1630205578274197</v>
+        <v>0.1621947007046806</v>
       </c>
       <c r="D80" t="n">
-        <v>0.357308584686775</v>
+        <v>0.3653667595171773</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.3803339517625232</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1577721601899932</v>
+        <v>0.1631825092960806</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1627010835541619</v>
+        <v>0.1624566995435291</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3642691415313225</v>
+        <v>0.3737233054781801</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3104089219330855</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1573290623286191</v>
+        <v>0.1625156555982197</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1634849773512946</v>
+        <v>0.1623284485605028</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3577726218097448</v>
+        <v>0.3746518105849582</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3420074349442379</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1580480841152808</v>
+        <v>0.1622167291010127</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1627500769164827</v>
+        <v>0.1625566565328174</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368445475638051</v>
+        <v>0.3806870937790158</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3197026022304832</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1580073018284405</v>
+        <v>0.1614736993523205</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1628453599082099</v>
+        <v>0.1622146533595191</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3526682134570766</v>
+        <v>0.3727948003714021</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3159851301115242</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1574318330077564</v>
+        <v>0.1625600742066608</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1638580825593736</v>
+        <v>0.1622409986125098</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3531322505800464</v>
+        <v>0.3658310120705664</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1576063142103308</v>
+        <v>0.1624424177057603</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1625989625851313</v>
+        <v>0.1623854918612374</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3568445475638051</v>
+        <v>0.3871866295264624</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3159851301115242</v>
+        <v>0.3617810760667903</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1586207769372884</v>
+        <v>0.1613472533576629</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1625886758168539</v>
+        <v>0.1620564460754395</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3508120649651972</v>
+        <v>0.3792943361188487</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3122676579925651</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1573722103939337</v>
+        <v>0.1627157834522864</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1632130758629905</v>
+        <v>0.1619976593388451</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3480278422273782</v>
+        <v>0.3774373259052925</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1581766723709948</v>
+        <v>0.1609492788420004</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1633391595549054</v>
+        <v>0.1619681666294734</v>
       </c>
       <c r="D89" t="n">
-        <v>0.362877030162413</v>
+        <v>0.3658310120705664</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1579044106252053</v>
+        <v>0.1618819512865123</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1633226109875573</v>
+        <v>0.1626917041010327</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3498839907192575</v>
+        <v>0.3639740018570102</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1580825360382304</v>
+        <v>0.1632296657737564</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1618854469723172</v>
+        <v>0.163017373945978</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3596287703016242</v>
+        <v>0.3709377901578459</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3364312267657992</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1576808265903417</v>
+        <v>0.1621020304806092</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1627117296059926</v>
+        <v>0.1628466910786099</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3619489559164733</v>
+        <v>0.3658310120705664</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1572906550239114</v>
+        <v>0.1614038847825106</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1626003219021691</v>
+        <v>0.1625067624780867</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3712296983758701</v>
+        <v>0.3802228412256267</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1580330352572834</v>
+        <v>0.1610437824445612</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1627293643024233</v>
+        <v>0.1625593552986781</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3410672853828307</v>
+        <v>0.3811513463324048</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3197026022304832</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1572969897704966</v>
+        <v>0.1622275464675006</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1635380436976751</v>
+        <v>0.1622175458404753</v>
       </c>
       <c r="D95" t="n">
-        <v>0.368445475638051</v>
+        <v>0.3746518105849582</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3562152133580705</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1573149202501073</v>
+        <v>0.1624625110450913</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1630516582065158</v>
+        <v>0.1622364819049835</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3624129930394431</v>
+        <v>0.3676880222841226</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3252788104089219</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1580159493228968</v>
+        <v>0.162007558871718</v>
       </c>
       <c r="C97" t="n">
-        <v>0.16301572157277</v>
+        <v>0.1625185145272149</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3698375870069606</v>
+        <v>0.3779015784586815</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3104089219330855</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1562225358451114</v>
+        <v>0.1616918413954622</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1634117464224497</v>
+        <v>0.1615208569500181</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3791183294663573</v>
+        <v>0.3644382544103992</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1572227026609813</v>
+        <v>0.1618271952166277</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1628237002425724</v>
+        <v>0.1625853743818071</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3730858468677494</v>
+        <v>0.3700092850510678</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1566947821308585</v>
+        <v>0.1618632604094113</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1624779237641228</v>
+        <v>0.162468444969919</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3633410672853828</v>
+        <v>0.3811513463324048</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3141263940520446</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1563556869240368</v>
+        <v>0.162720089449602</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1629673143227895</v>
+        <v>0.1624731404913796</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3749419953596287</v>
+        <v>0.3788300835654596</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1575361915370997</v>
+        <v>0.1611597459105884</v>
       </c>
       <c r="C102" t="n">
-        <v>0.16340980761581</v>
+        <v>0.16241731080744</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3832946635730858</v>
+        <v>0.3871866295264624</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3252788104089219</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1568087654955247</v>
+        <v>0.1622832211501458</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1626232647233539</v>
+        <v>0.1620060188902749</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3661252900232019</v>
+        <v>0.372330547818013</v>
       </c>
       <c r="E103" t="n">
-        <v>0.328996282527881</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1564602168167339</v>
+        <v>0.1601614960852791</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1627922654151917</v>
+        <v>0.1621971726417542</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3647331786542923</v>
+        <v>0.38347260909935</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3159851301115242</v>
+        <v>0.3617810760667903</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1585501388591879</v>
+        <v>0.1608098250101594</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1625283708175023</v>
+        <v>0.1625875814093484</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3624129930394431</v>
+        <v>0.3788300835654596</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1559467232402633</v>
+        <v>0.1618105067926295</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1637044151624044</v>
+        <v>0.1617931061320835</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3716937354988399</v>
+        <v>0.3676880222841226</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3122676579925651</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1562283784151077</v>
+        <v>0.1614572629332542</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1627057674858305</v>
+        <v>0.1630323115322325</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3665893271461717</v>
+        <v>0.3727948003714021</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.156178734758321</v>
+        <v>0.1610726797405411</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1628311160537932</v>
+        <v>0.1623325761821535</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3661252900232019</v>
+        <v>0.3839368616527391</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3066914498141264</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1566949166795787</v>
+        <v>0.1614942774176598</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1631017608775033</v>
+        <v>0.163855148686303</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3647331786542923</v>
+        <v>0.383008356545961</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1555134303429548</v>
+        <v>0.1602911011261099</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1630305035246743</v>
+        <v>0.1625701073143217</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3670533642691415</v>
+        <v>0.3788300835654596</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3401486988847583</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.157053039792706</v>
+        <v>0.1606820225715637</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1633395370509889</v>
+        <v>0.161656970779101</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3647331786542923</v>
+        <v>0.3922934076137419</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1565005082417937</v>
+        <v>0.1612943800933221</v>
       </c>
       <c r="C112" t="n">
-        <v>0.163188291920556</v>
+        <v>0.1616391688585281</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3781902552204177</v>
+        <v>0.3597957288765088</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3122676579925651</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1566607829402475</v>
+        <v>0.161665554432308</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1630068553818597</v>
+        <v>0.1617950730853611</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3670533642691415</v>
+        <v>0.3741875580315692</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3562152133580705</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1560210909913568</v>
+        <v>0.1598455406287137</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1629819058709674</v>
+        <v>0.1624267730447981</v>
       </c>
       <c r="D114" t="n">
-        <v>0.380046403712297</v>
+        <v>0.3825441039925719</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3821892393320965</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1555734167204184</v>
+        <v>0.1611488571061808</v>
       </c>
       <c r="C115" t="n">
-        <v>0.162989369697041</v>
+        <v>0.1627198275592592</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3563805104408352</v>
+        <v>0.3788300835654596</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.3914656771799629</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1565370853332912</v>
+        <v>0.1611975111505564</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1628568338023292</v>
+        <v>0.1621325280931261</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3624129930394431</v>
+        <v>0.3704735376044568</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3803339517625232</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1557731632800663</v>
+        <v>0.1609501115539495</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1629502243465847</v>
+        <v>0.1637547446621789</v>
       </c>
       <c r="D117" t="n">
-        <v>0.365661252900232</v>
+        <v>0.3820798514391829</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3159851301115242</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1571358122369822</v>
+        <v>0.1600710929316633</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1629523833592733</v>
+        <v>0.1625330398480097</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3591647331786543</v>
+        <v>0.3857938718662953</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3617810760667903</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1553646908963428</v>
+        <v>0.160332981716184</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1630268709527122</v>
+        <v>0.1622608386807972</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3911832946635731</v>
+        <v>0.3718662952646239</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3252788104089219</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1560665241935674</v>
+        <v>0.1593519926947706</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1636596984333462</v>
+        <v>0.1624896609120899</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3670533642691415</v>
+        <v>0.3922934076137419</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3364312267657992</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1564038904274211</v>
+        <v>0.1606991510180866</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1633305152257284</v>
+        <v>0.1626499460803138</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3642691415313225</v>
+        <v>0.3848653667595172</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3364312267657992</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1563644729116384</v>
+        <v>0.1602178741903866</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1626502242353227</v>
+        <v>0.1631370087464651</v>
       </c>
       <c r="D122" t="n">
-        <v>0.368445475638051</v>
+        <v>0.3969359331476323</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1563801480566754</v>
+        <v>0.1606071218848228</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1631075855758455</v>
+        <v>0.1617446541786194</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3777262180974478</v>
+        <v>0.3820798514391829</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3197026022304832</v>
+        <v>0.3970315398886827</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1560073622009333</v>
+        <v>0.1614209308343775</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1624929855267207</v>
+        <v>0.1632174832953347</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3721577726218098</v>
+        <v>0.3802228412256267</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3821892393320965</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1552337793742909</v>
+        <v>0.1607604083769462</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1643748266829385</v>
+        <v>0.1619079262018204</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3823665893271462</v>
+        <v>0.3881151346332405</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3104089219330855</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1560120091718786</v>
+        <v>0.1607739715015187</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1628190808826023</v>
+        <v>0.162462658352322</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3837587006960557</v>
+        <v>0.3806870937790158</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3382899628252788</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1558511616552577</v>
+        <v>0.1612850988612455</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1621732032961316</v>
+        <v>0.1640297969182332</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3740139211136891</v>
+        <v>0.3714020427112349</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3197026022304832</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.15635206331225</v>
+        <v>0.159803800723132</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1633103407091565</v>
+        <v>0.1624673472510444</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3763341067285383</v>
+        <v>0.3904363974001857</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1558664051048896</v>
+        <v>0.1598048551994211</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1628037227524651</v>
+        <v>0.1616792016559177</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3670533642691415</v>
+        <v>0.3895078922934076</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3345724907063197</v>
+        <v>0.3562152133580705</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1551705300807953</v>
+        <v>0.1596504642682917</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1626111053758197</v>
+        <v>0.1624561332994037</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3638051044083527</v>
+        <v>0.3881151346332405</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3104089219330855</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1560425469103981</v>
+        <v>0.1589970010168412</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1625477721293767</v>
+        <v>0.1629866460959117</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3712296983758701</v>
+        <v>0.3918291550603528</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1553227923372213</v>
+        <v>0.1595672894926632</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1646164291434818</v>
+        <v>0.1647603031661775</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3777262180974478</v>
+        <v>0.3788300835654596</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3401486988847583</v>
+        <v>0.3933209647495362</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1556534495423822</v>
+        <v>0.1603985363069703</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1625023898151186</v>
+        <v>0.1638175116644965</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3651972157772622</v>
+        <v>0.3848653667595172</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3122676579925651</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1539269159821903</v>
+        <v>0.1602364427903119</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1623649663395352</v>
+        <v>0.1623105721341239</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3730858468677494</v>
+        <v>0.3871866295264624</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3327137546468402</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1560230531236705</v>
+        <v>0.1608084383256295</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1623374753528171</v>
+        <v>0.1638741162088182</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3591647331786543</v>
+        <v>0.3765088207985144</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3197026022304832</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1555962619536063</v>
+        <v>0.1595814574290724</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1645270321104262</v>
+        <v>0.1630707283814748</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3624129930394431</v>
+        <v>0.3760445682451253</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3432282003710575</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1547841565573917</v>
+        <v>0.158954633947681</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1647214293479919</v>
+        <v>0.1641849262846841</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3809744779582366</v>
+        <v>0.3746518105849582</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3122676579925651</v>
+        <v>0.3914656771799629</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1551098170525887</v>
+        <v>0.158911394284052</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1622084677219391</v>
+        <v>0.1639888402488497</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3619489559164733</v>
+        <v>0.3918291550603528</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3420074349442379</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1558832670835888</v>
+        <v>0.1592200367766268</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1636132813162274</v>
+        <v>0.1628364423910777</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3781902552204177</v>
+        <v>0.3909006499535748</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3364312267657992</v>
+        <v>0.3562152133580705</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1548658403403619</v>
+        <v>0.159131580415894</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1625300215350257</v>
+        <v>0.1631434874402152</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3712296983758701</v>
+        <v>0.403899721448468</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3413729128014842</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1555394959800384</v>
+        <v>0.1592906319043216</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1638201011551751</v>
+        <v>0.1635485705402162</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3763341067285383</v>
+        <v>0.3844011142061282</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1558038566042395</v>
+        <v>0.1593717954614583</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1624500072664685</v>
+        <v>0.1626099695761999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3647331786542923</v>
+        <v>0.3816155988857939</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3197026022304832</v>
+        <v>0.4063079777365491</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1543187113369212</v>
+        <v>0.1601420382366461</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1632799473073747</v>
+        <v>0.1623413314421972</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3897911832946636</v>
+        <v>0.3909006499535748</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3308550185873606</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1557214676457293</v>
+        <v>0.1587853751638356</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1631439427534739</v>
+        <v>0.1627525753445095</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3730858468677494</v>
+        <v>0.3709377901578459</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1557959589888068</v>
+        <v>0.1598515251980108</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1632965207099915</v>
+        <v>0.1628771093156603</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3744779582366589</v>
+        <v>0.3844011142061282</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3178438661710037</v>
+        <v>0.3933209647495362</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1552631653407041</v>
+        <v>0.1600099403192015</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1635854608482785</v>
+        <v>0.1630781094233195</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3726218097447796</v>
+        <v>0.3774373259052925</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3085501858736059</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1557793718050508</v>
+        <v>0.1598590594880721</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1637884808911217</v>
+        <v>0.1633095774385664</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3651972157772622</v>
+        <v>0.3667595171773445</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3364312267657992</v>
+        <v>0.3914656771799629</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1553232788163073</v>
+        <v>0.1584934438852703</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1634721557299296</v>
+        <v>0.1623412751489215</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3763341067285383</v>
+        <v>0.3950789229340761</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3122676579925651</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1551564265699948</v>
+        <v>0.1595326982000295</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1632664187086953</v>
+        <v>0.1630037178595861</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3703016241299304</v>
+        <v>0.3853296193129062</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3215613382899628</v>
+        <v>0.3821892393320965</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1542020615409402</v>
+        <v>0.1587558870806414</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1633736044168472</v>
+        <v>0.1641570097870297</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3767981438515081</v>
+        <v>0.3862581244196843</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3271375464684015</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1548503387500258</v>
+        <v>0.158532935906859</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1632132596439785</v>
+        <v>0.1631578422254986</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3921113689095128</v>
+        <v>0.3871866295264624</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3104089219330855</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1555697330657174</v>
+        <v>0.1590050423846525</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1633617050117916</v>
+        <v>0.1629932953251733</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3452436194895592</v>
+        <v>0.3904363974001857</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3252788104089219</v>
+        <v>0.3413729128014842</v>
       </c>
     </row>
   </sheetData>

--- a/FC_figure_bank/mRNALossAccDF.xlsx
+++ b/FC_figure_bank/mRNALossAccDF.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.172153205556028</v>
+        <v>0.1781282004188089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1717651089032491</v>
+        <v>0.1776808285050922</v>
       </c>
       <c r="D2" t="n">
         <v>0.3848653667595172</v>
@@ -482,13 +482,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2223335149533608</v>
+        <v>0.2257417400970179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.179186859064632</v>
+        <v>0.1834106097618739</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1457753017641597</v>
+        <v>0.1429897864438254</v>
       </c>
       <c r="E3" t="n">
         <v>0.1001855287569573</v>
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2090244976913228</v>
+        <v>0.2122650251669042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1770335303412544</v>
+        <v>0.180310716231664</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159238625812442</v>
+        <v>0.1578458681522748</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1465677179962894</v>
+        <v>0.1447124304267161</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2058596107013085</v>
+        <v>0.2093919550671297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1771240217818154</v>
+        <v>0.1809197713931402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1685236768802229</v>
+        <v>0.1717734447539462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1669758812615955</v>
+        <v>0.2300556586270872</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2010508784476449</v>
+        <v>0.2060830312616685</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1751685986916224</v>
+        <v>0.1813899460766051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1708449396471681</v>
+        <v>0.1615598885793872</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1651205936920223</v>
+        <v>0.1539888682745826</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1941078576971503</v>
+        <v>0.1993489186553394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1768968684805764</v>
+        <v>0.1809945586654875</v>
       </c>
       <c r="D7" t="n">
         <v>0.1861652739090065</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1799628942486085</v>
+        <v>0.1873840445269017</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1910896546700422</v>
+        <v>0.1965034950305434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1710723423295551</v>
+        <v>0.1758967339992523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2089136490250696</v>
+        <v>0.1991643454038997</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2801484230055659</v>
+        <v>0.2337662337662338</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1850137438844232</v>
+        <v>0.1912572401411393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1730293167961968</v>
+        <v>0.1775972048441569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2270194986072423</v>
+        <v>0.2200557103064067</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2133580705009276</v>
+        <v>0.2244897959183673</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1861177963369033</v>
+        <v>0.1922575182774488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1716357982820935</v>
+        <v>0.1774971832831701</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2172701949860724</v>
+        <v>0.2284122562674095</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1966604823747681</v>
+        <v>0.2207792207792208</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1820438565576778</v>
+        <v>0.1882017044460072</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1690461950169669</v>
+        <v>0.175382567776574</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2381615598885794</v>
+        <v>0.2135561745589601</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2393320964749536</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1794597712509772</v>
+        <v>0.1844405545031323</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1691366682449977</v>
+        <v>0.1753765559858746</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2650882079851439</v>
+        <v>0.2590529247910863</v>
       </c>
       <c r="E12" t="n">
-        <v>0.287569573283859</v>
+        <v>0.2764378478664193</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1809432681869058</v>
+        <v>0.1864111296394292</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1697560780578189</v>
+        <v>0.1741703467236625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2641597028783658</v>
+        <v>0.2525533890436397</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2393320964749536</v>
+        <v>0.2634508348794063</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1758442998808973</v>
+        <v>0.1825627513668116</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1693867047627767</v>
+        <v>0.1741996821429994</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2623026926648097</v>
+        <v>0.2520891364902507</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2393320964749536</v>
+        <v>0.274582560296846</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.17725109352785</v>
+        <v>0.1837044454672757</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1679290417167875</v>
+        <v>0.1733543541696337</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2780872794800371</v>
+        <v>0.2715877437325905</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2949907235621521</v>
+        <v>0.2764378478664193</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1725785315913313</v>
+        <v>0.1792898822356673</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1678175661298964</v>
+        <v>0.1750353144274818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2855153203342619</v>
+        <v>0.2715877437325905</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3191094619666048</v>
+        <v>0.274582560296846</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1746009307749131</v>
+        <v>0.1818270521128879</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1667335745361116</v>
+        <v>0.172575197286076</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2878365831012071</v>
+        <v>0.2799442896935933</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3172541743970315</v>
+        <v>0.261595547309833</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1736569316948161</v>
+        <v>0.1810324498835732</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1671187000142204</v>
+        <v>0.1734709276093377</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2920148560817085</v>
+        <v>0.2729805013927576</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3339517625231911</v>
+        <v>0.2634508348794063</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1711001944016008</v>
+        <v>0.1781474351882935</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1660830246077644</v>
+        <v>0.1727046271165212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2924791086350975</v>
+        <v>0.2906220984215413</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.2708719851576994</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1716301612117711</v>
+        <v>0.1795320392531507</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1658980233801736</v>
+        <v>0.172490934530894</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3050139275766017</v>
+        <v>0.2915506035283194</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3116883116883117</v>
+        <v>0.2801484230055659</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1716203549328972</v>
+        <v>0.1800933993038009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1663321571217643</v>
+        <v>0.1716145426034927</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3124419684308264</v>
+        <v>0.2878365831012071</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2949907235621521</v>
+        <v>0.3209647495361781</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1704812229556196</v>
+        <v>0.1770400532028254</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1649523658884896</v>
+        <v>0.1724187483390172</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3045496750232126</v>
+        <v>0.3068709377901578</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.3320964749536178</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1705080766011687</v>
+        <v>0.1784944385290146</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1651570151249568</v>
+        <v>0.1720376312732697</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3152274837511606</v>
+        <v>0.2938718662952646</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3821892393320965</v>
+        <v>0.3617810760667903</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1683384942657807</v>
+        <v>0.1751161349170348</v>
       </c>
       <c r="C24" t="n">
-        <v>0.164725821879175</v>
+        <v>0.1718416280216641</v>
       </c>
       <c r="D24" t="n">
-        <v>0.340297121634169</v>
+        <v>0.3272980501392758</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1707562015337103</v>
+        <v>0.1767562303472968</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1646856715281804</v>
+        <v>0.1724662764204873</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3310120705663881</v>
+        <v>0.3231197771587744</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3413729128014842</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1691631346064455</v>
+        <v>0.1774118086870979</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1640962180164125</v>
+        <v>0.1716677198807398</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3365831012070566</v>
+        <v>0.3310120705663881</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3487940630797773</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1686685019556214</v>
+        <v>0.1759345619117512</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1639028108782238</v>
+        <v>0.171331955326928</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3384401114206128</v>
+        <v>0.3221912720519963</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3747680890538033</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1673093981602613</v>
+        <v>0.1747865611139466</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1642013887564341</v>
+        <v>0.171376089255015</v>
       </c>
       <c r="D28" t="n">
-        <v>0.340297121634169</v>
+        <v>0.3282265552460539</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1675702026661705</v>
+        <v>0.1748028353733175</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1633740862210592</v>
+        <v>0.1713274932569928</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3203342618384401</v>
+        <v>0.3147632311977716</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3729128014842301</v>
+        <v>0.3413729128014842</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1667803197222597</v>
+        <v>0.1759932369870298</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1635844061772029</v>
+        <v>0.1709464010265138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3328690807799443</v>
+        <v>0.319870009285051</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1670879322816344</v>
+        <v>0.1754672146018814</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1638480689790514</v>
+        <v>0.1714763624800576</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3458681522748375</v>
+        <v>0.3259052924791087</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3784786641929499</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="32">
@@ -975,13 +975,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1664404492167866</v>
+        <v>0.1740830711582128</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1632457590765423</v>
+        <v>0.1710150705443488</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3486536675951718</v>
+        <v>0.3393686165273909</v>
       </c>
       <c r="E32" t="n">
         <v>0.3710575139146567</v>
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1678691878914833</v>
+        <v>0.1750450191252372</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1633374459213681</v>
+        <v>0.1710086282756594</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3542246982358403</v>
+        <v>0.3351903435468895</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3692022263450835</v>
+        <v>0.3617810760667903</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1663290915243766</v>
+        <v>0.1738820444135105</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1628483053710726</v>
+        <v>0.1706779251495997</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3430826369545033</v>
+        <v>0.3291550603528319</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3562152133580705</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1670176163315773</v>
+        <v>0.1742727822240661</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1626327998108334</v>
+        <v>0.1713208572732078</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3375116063138347</v>
+        <v>0.3467966573816156</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3450834879406308</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1667894865660106</v>
+        <v>0.1736859411877744</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1630608042081197</v>
+        <v>0.1707591166098913</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3365831012070566</v>
+        <v>0.3454038997214485</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3692022263450835</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1656140549217953</v>
+        <v>0.1729547701337758</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1633732153309716</v>
+        <v>0.170930082599322</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3416898792943361</v>
+        <v>0.3449396471680594</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3692022263450835</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1653256858972942</v>
+        <v>0.1727357020272928</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1627239220672184</v>
+        <v>0.1704731070333057</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3560817084493965</v>
+        <v>0.3472609099350046</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3747680890538033</v>
+        <v>0.3858998144712431</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1659037234152065</v>
+        <v>0.1739906611687997</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1627973119417826</v>
+        <v>0.1708480699194802</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3579387186629526</v>
+        <v>0.3458681522748375</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.166059644344975</v>
+        <v>0.1734733046854244</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1626793311701881</v>
+        <v>0.1706868741247389</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3416898792943361</v>
+        <v>0.3328690807799443</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1658786469522645</v>
+        <v>0.1731474044568398</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1631182216935688</v>
+        <v>0.1709541496303346</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3542246982358403</v>
+        <v>0.351439182915506</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1657946867977872</v>
+        <v>0.1737116877647007</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1630517343680064</v>
+        <v>0.1707931094699436</v>
       </c>
       <c r="D42" t="n">
-        <v>0.361652739090065</v>
+        <v>0.3463324048282266</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3580705009276438</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1655262910267886</v>
+        <v>0.1727074866785723</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1633852140771018</v>
+        <v>0.1711684813102086</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3546889507892294</v>
+        <v>0.3597957288765088</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3896103896103896</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1639109784189393</v>
+        <v>0.1724417590919663</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1630477276113298</v>
+        <v>0.1706948346561856</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3635097493036212</v>
+        <v>0.3607242339832869</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1641325516735806</v>
+        <v>0.1728183298426516</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1633550044563082</v>
+        <v>0.1705770426326328</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3565459610027855</v>
+        <v>0.3486536675951718</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3821892393320965</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1636513795922784</v>
+        <v>0.1717196825672598</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1630831857522329</v>
+        <v>0.1702388127644857</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3639740018570102</v>
+        <v>0.3584029712163417</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3933209647495362</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1655608779367279</v>
+        <v>0.173900838722201</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1630372371938494</v>
+        <v>0.1703045980797874</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3472609099350046</v>
+        <v>0.329619312906221</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3729128014842301</v>
+        <v>0.3858998144712431</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1624029887949719</v>
+        <v>0.1704391714404611</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1624791241354412</v>
+        <v>0.1704023149278429</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3732590529247911</v>
+        <v>0.3672237697307335</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3729128014842301</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="49">
@@ -1264,13 +1264,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1637724971070009</v>
+        <v>0.1713336473878692</v>
       </c>
       <c r="C49" t="n">
-        <v>0.162459467848142</v>
+        <v>0.1704375098148982</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3639740018570102</v>
+        <v>0.3584029712163417</v>
       </c>
       <c r="E49" t="n">
         <v>0.3729128014842301</v>
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1646756503511878</v>
+        <v>0.1723959314472535</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1624230411317613</v>
+        <v>0.1704135884841283</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3579387186629526</v>
+        <v>0.3523676880222841</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3729128014842301</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1641156598925591</v>
+        <v>0.1725371330976486</v>
       </c>
       <c r="C51" t="n">
-        <v>0.163263898756769</v>
+        <v>0.1704241865211063</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3584029712163417</v>
+        <v>0.3491179201485608</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3692022263450835</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1644435568767435</v>
+        <v>0.1716856763643377</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1624440749486288</v>
+        <v>0.1701071725951301</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3667595171773445</v>
+        <v>0.3644382544103992</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1643356777289335</v>
+        <v>0.1720069283071686</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1627561930153105</v>
+        <v>0.1705430381827884</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3714020427112349</v>
+        <v>0.3635097493036212</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3692022263450835</v>
+        <v>0.3729128014842301</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1652036922819474</v>
+        <v>0.1723879128694534</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1629659252034293</v>
+        <v>0.1699438293774923</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3570102135561746</v>
+        <v>0.3532961931290622</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3543599257884972</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1651933491230011</v>
+        <v>0.1735313609242439</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1627712382210625</v>
+        <v>0.1700921141439014</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3602599814298978</v>
+        <v>0.3458681522748375</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3599257884972171</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1645814592347425</v>
+        <v>0.1724166949005688</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1627914756536484</v>
+        <v>0.1701136926809947</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3519034354688951</v>
+        <v>0.361652739090065</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3617810760667903</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1639366092927316</v>
+        <v>0.1713864882202709</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1632461067703035</v>
+        <v>0.170109533601337</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3546889507892294</v>
+        <v>0.3481894150417827</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3858998144712431</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1643186947878669</v>
+        <v>0.1719931136159336</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1628900120655696</v>
+        <v>0.170487673746215</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3556174558960074</v>
+        <v>0.3588672237697307</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3543599257884972</v>
+        <v>0.3562152133580705</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1634228974580765</v>
+        <v>0.1716351105886347</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1618862483236525</v>
+        <v>0.1699926853179932</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3639740018570102</v>
+        <v>0.3542246982358403</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3858998144712431</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163673258441336</v>
+        <v>0.1721321436412194</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1629036962985992</v>
+        <v>0.1704203966591093</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3695450324976787</v>
+        <v>0.3477251624883937</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3692022263450835</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1640163489124354</v>
+        <v>0.1717198153629023</v>
       </c>
       <c r="C61" t="n">
-        <v>0.162590064936214</v>
+        <v>0.1703810228241814</v>
       </c>
       <c r="D61" t="n">
-        <v>0.351439182915506</v>
+        <v>0.3519034354688951</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3654916512059369</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1633558255784652</v>
+        <v>0.1711425334215164</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1623842120170593</v>
+        <v>0.1701544837819206</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3602599814298978</v>
+        <v>0.3635097493036212</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3729128014842301</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="63">
@@ -1502,13 +1502,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1631906597929842</v>
+        <v>0.1702823932556545</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1622002224127451</v>
+        <v>0.1701520449585385</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3788300835654596</v>
+        <v>0.3681522748375116</v>
       </c>
       <c r="E63" t="n">
         <v>0.3692022263450835</v>
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1623541563749313</v>
+        <v>0.1702015689190696</v>
       </c>
       <c r="C64" t="n">
-        <v>0.162080286277665</v>
+        <v>0.1695857114262051</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3732590529247911</v>
+        <v>0.372330547818013</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1635265122441684</v>
+        <v>0.1709551092456369</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1623673886060715</v>
+        <v>0.1698948111799028</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3690807799442897</v>
+        <v>0.3630454967502321</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3562152133580705</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1631078360711827</v>
+        <v>0.1708003317608553</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1622185160716375</v>
+        <v>0.1697630501455731</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3658310120705664</v>
+        <v>0.362116991643454</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3784786641929499</v>
+        <v>0.3858998144712431</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1624492542708621</v>
+        <v>0.1706879362463951</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1621308442619112</v>
+        <v>0.1699335939354367</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3783658310120706</v>
+        <v>0.3667595171773445</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3729128014842301</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1625632748884313</v>
+        <v>0.1700874457464499</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1621359371476703</v>
+        <v>0.1699657589197159</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3718662952646239</v>
+        <v>0.3727948003714021</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3599257884972171</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1636954033199479</v>
+        <v>0.1704460250980714</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1623361557722092</v>
+        <v>0.1699890295664469</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3649025069637883</v>
+        <v>0.3755803156917363</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3599257884972171</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1624643596656182</v>
+        <v>0.169756862170556</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1621373660034603</v>
+        <v>0.1694304777516259</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3695450324976787</v>
+        <v>0.3602599814298978</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3803339517625232</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1631786297349369</v>
+        <v>0.1711641760433421</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1621357881360584</v>
+        <v>0.1699325508541531</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3570102135561746</v>
+        <v>0.3495821727019499</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3599257884972171</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1627137932707282</v>
+        <v>0.1703687402255395</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1623242778910531</v>
+        <v>0.1703370710213979</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3714020427112349</v>
+        <v>0.3607242339832869</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3525046382189239</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1629605008398785</v>
+        <v>0.1702801848159117</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1623553153541353</v>
+        <v>0.169969552093082</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3769730733519034</v>
+        <v>0.3695450324976787</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1621704233043334</v>
+        <v>0.1701222719515071</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1621537738376194</v>
+        <v>0.1701219462686115</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3881151346332405</v>
+        <v>0.3686165273909007</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3487940630797773</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1625956625622862</v>
+        <v>0.1703218550366514</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1623476015196906</v>
+        <v>0.1703319549560547</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3779015784586815</v>
+        <v>0.3588672237697307</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3580705009276438</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1641805329743554</v>
+        <v>0.1722757066873943</v>
       </c>
       <c r="C76" t="n">
-        <v>0.162240712179078</v>
+        <v>0.1705003811253442</v>
       </c>
       <c r="D76" t="n">
-        <v>0.361652739090065</v>
+        <v>0.3542246982358403</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3821892393320965</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1633715572602609</v>
+        <v>0.1708933741730802</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1622601929638121</v>
+        <v>0.1698764893743727</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3727948003714021</v>
+        <v>0.3741875580315692</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3784786641929499</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="78">
@@ -1757,13 +1757,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1632018829969799</v>
+        <v>0.1712700948119164</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1623699184921053</v>
+        <v>0.1703697641690572</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3597957288765088</v>
+        <v>0.3556174558960074</v>
       </c>
       <c r="E78" t="n">
         <v>0.3692022263450835</v>
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1632007334162207</v>
+        <v>0.171448661124005</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1620260377724966</v>
+        <v>0.1703174991740121</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3709377901578459</v>
+        <v>0.3542246982358403</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3599257884972171</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1617646072717274</v>
+        <v>0.1696366347810801</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1621947007046806</v>
+        <v>0.1698422481616338</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3653667595171773</v>
+        <v>0.3639740018570102</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3803339517625232</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1631825092960806</v>
+        <v>0.1708780290449367</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1624566995435291</v>
+        <v>0.1702769017881817</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3737233054781801</v>
+        <v>0.3570102135561746</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3729128014842301</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1625156555982197</v>
+        <v>0.1709034083520665</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1623284485605028</v>
+        <v>0.1703907433483336</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3746518105849582</v>
+        <v>0.351439182915506</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1622167291010127</v>
+        <v>0.1699248039547135</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1625566565328174</v>
+        <v>0.1701249960396025</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3806870937790158</v>
+        <v>0.3737233054781801</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3654916512059369</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1614736993523205</v>
+        <v>0.1690194663756034</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1622146533595191</v>
+        <v>0.1701215555270513</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3727948003714021</v>
+        <v>0.3774373259052925</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3784786641929499</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1625600742066608</v>
+        <v>0.1701546315761173</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1622409986125098</v>
+        <v>0.1699037998914719</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3658310120705664</v>
+        <v>0.3639740018570102</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1624424177057603</v>
+        <v>0.1705144876066376</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1623854918612374</v>
+        <v>0.1699726962380939</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3871866295264624</v>
+        <v>0.3653667595171773</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3617810760667903</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1613472533576629</v>
+        <v>0.169972176937496</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1620564460754395</v>
+        <v>0.169609902633561</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3792943361188487</v>
+        <v>0.3649025069637883</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3599257884972171</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1627157834522864</v>
+        <v>0.1702763254151625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1619976593388451</v>
+        <v>0.1698404848575592</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3774373259052925</v>
+        <v>0.3676880222841226</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3543599257884972</v>
       </c>
     </row>
     <row r="89">
@@ -1944,13 +1944,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1609492788420004</v>
+        <v>0.1686799013439347</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1619681666294734</v>
+        <v>0.1702787313196394</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3658310120705664</v>
+        <v>0.3774373259052925</v>
       </c>
       <c r="E89" t="n">
         <v>0.3580705009276438</v>
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1618819512865123</v>
+        <v>0.1699303695384194</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1626917041010327</v>
+        <v>0.1706832547982534</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3639740018570102</v>
+        <v>0.3630454967502321</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3525046382189239</v>
+        <v>0.3858998144712431</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1632296657737564</v>
+        <v>0.1717158932896221</v>
       </c>
       <c r="C91" t="n">
-        <v>0.163017373945978</v>
+        <v>0.1700106478399701</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3709377901578459</v>
+        <v>0.3537604456824512</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3525046382189239</v>
+        <v>0.3320964749536178</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1621020304806092</v>
+        <v>0.1699022948741913</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1628466910786099</v>
+        <v>0.1700475066900253</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3658310120705664</v>
+        <v>0.3630454967502321</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1614038847825106</v>
+        <v>0.1698036347241963</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1625067624780867</v>
+        <v>0.169918030500412</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3802228412256267</v>
+        <v>0.3727948003714021</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1610437824445612</v>
+        <v>0.1691105804022621</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1625593552986781</v>
+        <v>0.1694478872749541</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3811513463324048</v>
+        <v>0.3672237697307335</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3525046382189239</v>
+        <v>0.3487940630797773</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1622275464675006</v>
+        <v>0.1695585066781324</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1622175458404753</v>
+        <v>0.1696674658192528</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3746518105849582</v>
+        <v>0.3737233054781801</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3562152133580705</v>
+        <v>0.3525046382189239</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1624625110450913</v>
+        <v>0.170243699760998</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1622364819049835</v>
+        <v>0.1690515163871977</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3676880222841226</v>
+        <v>0.3570102135561746</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.3469387755102041</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.162007558871718</v>
+        <v>0.1687557513222975</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1625185145272149</v>
+        <v>0.1707513183355331</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3779015784586815</v>
+        <v>0.3774373259052925</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3692022263450835</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1616918413954622</v>
+        <v>0.1701924480936106</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1615208569500181</v>
+        <v>0.1696301036410862</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3644382544103992</v>
+        <v>0.3718662952646239</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3580705009276438</v>
+        <v>0.3395176252319109</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1618271952166277</v>
+        <v>0.1699944151675</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1625853743818071</v>
+        <v>0.1699045747518539</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3700092850510678</v>
+        <v>0.3667595171773445</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1618632604094113</v>
+        <v>0.169763965641751</v>
       </c>
       <c r="C100" t="n">
-        <v>0.162468444969919</v>
+        <v>0.1698828521702025</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3811513463324048</v>
+        <v>0.3681522748375116</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3525046382189239</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.162720089449602</v>
+        <v>0.1705597481306861</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1624731404913796</v>
+        <v>0.1696557899316152</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3788300835654596</v>
+        <v>0.3607242339832869</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1611597459105884</v>
+        <v>0.1691425973001648</v>
       </c>
       <c r="C102" t="n">
-        <v>0.16241731080744</v>
+        <v>0.1697379880481296</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3871866295264624</v>
+        <v>0.3755803156917363</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3803339517625232</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1622832211501458</v>
+        <v>0.1699967765632798</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1620060188902749</v>
+        <v>0.1697322775920232</v>
       </c>
       <c r="D103" t="n">
-        <v>0.372330547818013</v>
+        <v>0.3662952646239555</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3543599257884972</v>
+        <v>0.3877551020408163</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1601614960852791</v>
+        <v>0.1684737652540207</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1621971726417542</v>
+        <v>0.1697023908297221</v>
       </c>
       <c r="D104" t="n">
         <v>0.38347260909935</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3617810760667903</v>
+        <v>0.3339517625231911</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1608098250101594</v>
+        <v>0.1683240252382615</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1625875814093484</v>
+        <v>0.1694285455677244</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3788300835654596</v>
+        <v>0.3811513463324048</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1618105067926295</v>
+        <v>0.1699754924458616</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1617931061320835</v>
+        <v>0.1706221799055735</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3676880222841226</v>
+        <v>0.3597957288765088</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3729128014842301</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1614572629332542</v>
+        <v>0.1689883566954557</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1630323115322325</v>
+        <v>0.1701397647460302</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3727948003714021</v>
+        <v>0.3602599814298978</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3654916512059369</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1610726797405411</v>
+        <v>0.1688473093159059</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1623325761821535</v>
+        <v>0.1702328357431624</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3839368616527391</v>
+        <v>0.3774373259052925</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3525046382189239</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1614942774176598</v>
+        <v>0.1698892769568107</v>
       </c>
       <c r="C109" t="n">
-        <v>0.163855148686303</v>
+        <v>0.1704867978890737</v>
       </c>
       <c r="D109" t="n">
-        <v>0.383008356545961</v>
+        <v>0.3662952646239555</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3580705009276438</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1602911011261099</v>
+        <v>0.1682424194672529</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1625701073143217</v>
+        <v>0.1701319995853636</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3788300835654596</v>
+        <v>0.3737233054781801</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3692022263450835</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1606820225715637</v>
+        <v>0.1687765555346713</v>
       </c>
       <c r="C111" t="n">
-        <v>0.161656970779101</v>
+        <v>0.1712256388531791</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3922934076137419</v>
+        <v>0.3895078922934076</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3747680890538033</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1612943800933221</v>
+        <v>0.1693314002717242</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1616391688585281</v>
+        <v>0.1704240060514874</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3597957288765088</v>
+        <v>0.3607242339832869</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3525046382189239</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.161665554432308</v>
+        <v>0.1689857411033967</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1617950730853611</v>
+        <v>0.1697025150060654</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3741875580315692</v>
+        <v>0.3662952646239555</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3562152133580705</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1598455406287137</v>
+        <v>0.1688883102992002</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1624267730447981</v>
+        <v>0.1699673185745875</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3825441039925719</v>
+        <v>0.3765088207985144</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3821892393320965</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1611488571061808</v>
+        <v>0.1689305244123235</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1627198275592592</v>
+        <v>0.1716115640269386</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3788300835654596</v>
+        <v>0.3649025069637883</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3914656771799629</v>
+        <v>0.3877551020408163</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1611975111505564</v>
+        <v>0.1686321168261416</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1621325280931261</v>
+        <v>0.1691813535160488</v>
       </c>
       <c r="D116" t="n">
         <v>0.3704735376044568</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3803339517625232</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1609501115539495</v>
+        <v>0.1694013384335181</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1637547446621789</v>
+        <v>0.1699224329657025</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3820798514391829</v>
+        <v>0.3741875580315692</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1600710929316633</v>
+        <v>0.16740331711138</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1625330398480097</v>
+        <v>0.1708999872207642</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3857938718662953</v>
+        <v>0.3751160631383473</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3617810760667903</v>
+        <v>0.3450834879406308</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.160332981716184</v>
+        <v>0.1672511679284713</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1622608386807972</v>
+        <v>0.1704847729868359</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3718662952646239</v>
+        <v>0.3783658310120706</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3525046382189239</v>
+        <v>0.3896103896103896</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1593519926947706</v>
+        <v>0.1680037427474471</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1624896609120899</v>
+        <v>0.1707452651527193</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3922934076137419</v>
+        <v>0.3797585886722377</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3543599257884972</v>
+        <v>0.3803339517625232</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1606991510180866</v>
+        <v>0.1675658944775076</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1626499460803138</v>
+        <v>0.1704694694942898</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3848653667595172</v>
+        <v>0.3909006499535748</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3543599257884972</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1602178741903866</v>
+        <v>0.1679918910650646</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1631370087464651</v>
+        <v>0.1724768413437737</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3969359331476323</v>
+        <v>0.3802228412256267</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1606071218848228</v>
+        <v>0.1684326051789171</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1617446541786194</v>
+        <v>0.1705684231387244</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3820798514391829</v>
+        <v>0.3709377901578459</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3970315398886827</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1614209308343775</v>
+        <v>0.1696101107141551</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1632174832953347</v>
+        <v>0.1708802398708132</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3802228412256267</v>
+        <v>0.3700092850510678</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3821892393320965</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1607604083769462</v>
+        <v>0.1690459062947947</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1619079262018204</v>
+        <v>0.1711136433813307</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3881151346332405</v>
+        <v>0.3741875580315692</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3580705009276438</v>
+        <v>0.3358070500927644</v>
       </c>
     </row>
     <row r="126">
@@ -2573,13 +2573,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1607739715015187</v>
+        <v>0.1685314489638104</v>
       </c>
       <c r="C126" t="n">
-        <v>0.162462658352322</v>
+        <v>0.170194504989518</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3806870937790158</v>
+        <v>0.3751160631383473</v>
       </c>
       <c r="E126" t="n">
         <v>0.3580705009276438</v>
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1612850988612455</v>
+        <v>0.1691452628549407</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1640297969182332</v>
+        <v>0.1715312898159027</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3714020427112349</v>
+        <v>0.3653667595171773</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.159803800723132</v>
+        <v>0.1677570255363689</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1624673472510444</v>
+        <v>0.1711954938040839</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3904363974001857</v>
+        <v>0.3714020427112349</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3543599257884972</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1598048551994211</v>
+        <v>0.1681454019511447</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1616792016559177</v>
+        <v>0.170477666788631</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3895078922934076</v>
+        <v>0.3644382544103992</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3562152133580705</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1596504642682917</v>
+        <v>0.1671061993521803</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1624561332994037</v>
+        <v>0.170335978269577</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3881151346332405</v>
+        <v>0.3714020427112349</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.3803339517625232</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1589970010168412</v>
+        <v>0.1670811469940578</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1629866460959117</v>
+        <v>0.1708089924520916</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3918291550603528</v>
+        <v>0.3765088207985144</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3525046382189239</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1595672894926632</v>
+        <v>0.1667526316116838</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1647603031661775</v>
+        <v>0.1725763893789715</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3788300835654596</v>
+        <v>0.3783658310120706</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3933209647495362</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1603985363069703</v>
+        <v>0.1681087306317161</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1638175116644965</v>
+        <v>0.1706401523616579</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3848653667595172</v>
+        <v>0.3667595171773445</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3543599257884972</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1602364427903119</v>
+        <v>0.1682257796911632</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1623105721341239</v>
+        <v>0.1709006230036418</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3871866295264624</v>
+        <v>0.3709377901578459</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3840445269016697</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1608084383256295</v>
+        <v>0.1679747100262081</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1638741162088182</v>
+        <v>0.1717418134212494</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3765088207985144</v>
+        <v>0.3714020427112349</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1595814574290724</v>
+        <v>0.1671458360026865</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1630707283814748</v>
+        <v>0.1701364318529765</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3760445682451253</v>
+        <v>0.3625812441968431</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3432282003710575</v>
+        <v>0.3692022263450835</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.158954633947681</v>
+        <v>0.166632910423419</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1641849262846841</v>
+        <v>0.1711514310704337</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3746518105849582</v>
+        <v>0.3700092850510678</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3914656771799629</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158911394284052</v>
+        <v>0.1667528752894963</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1639888402488497</v>
+        <v>0.171001652876536</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3918291550603528</v>
+        <v>0.3709377901578459</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3747680890538033</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1592200367766268</v>
+        <v>0.1674556324587149</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1628364423910777</v>
+        <v>0.1704799152082867</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3909006499535748</v>
+        <v>0.3783658310120706</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3562152133580705</v>
+        <v>0.3191094619666048</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.159131580415894</v>
+        <v>0.1665848975672442</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1631434874402152</v>
+        <v>0.1696745753288269</v>
       </c>
       <c r="D140" t="n">
-        <v>0.403899721448468</v>
+        <v>0.38347260909935</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3413729128014842</v>
+        <v>0.3617810760667903</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1592906319043216</v>
+        <v>0.1671215037212652</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1635485705402162</v>
+        <v>0.1708981096744537</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3844011142061282</v>
+        <v>0.3806870937790158</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3599257884972171</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1593717954614583</v>
+        <v>0.1673334968440673</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1626099695761999</v>
+        <v>0.1707483033339182</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3816155988857939</v>
+        <v>0.3765088207985144</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4063079777365491</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1601420382366461</v>
+        <v>0.1677526989403893</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1623413314421972</v>
+        <v>0.1715240991777844</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3909006499535748</v>
+        <v>0.3783658310120706</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3729128014842301</v>
+        <v>0.3617810760667903</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1587853751638356</v>
+        <v>0.1671471705331522</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1627525753445095</v>
+        <v>0.1726758198605644</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3709377901578459</v>
+        <v>0.3649025069637883</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3692022263450835</v>
+        <v>0.3784786641929499</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1598515251980108</v>
+        <v>0.1684640624067363</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1628771093156603</v>
+        <v>0.1713620291815864</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3844011142061282</v>
+        <v>0.3695450324976787</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3933209647495362</v>
+        <v>0.3098330241187384</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1600099403192015</v>
+        <v>0.1670855516019989</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1630781094233195</v>
+        <v>0.1704260408878326</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3774373259052925</v>
+        <v>0.3732590529247911</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3654916512059369</v>
+        <v>0.3821892393320965</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1598590594880721</v>
+        <v>0.1672409996390343</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1633095774385664</v>
+        <v>0.1715193539857864</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3667595171773445</v>
+        <v>0.3746518105849582</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3914656771799629</v>
+        <v>0.3320964749536178</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1584934438852703</v>
+        <v>0.1654636789770687</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1623412751489215</v>
+        <v>0.1708304617140028</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3950789229340761</v>
+        <v>0.3765088207985144</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3710575139146567</v>
+        <v>0.3599257884972171</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1595326982000295</v>
+        <v>0.1673991364591262</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1630037178595861</v>
+        <v>0.1714658422602547</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3853296193129062</v>
+        <v>0.3718662952646239</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3821892393320965</v>
+        <v>0.3710575139146567</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1587558870806414</v>
+        <v>0.1664745215983952</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1641570097870297</v>
+        <v>0.1747749547163645</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3862581244196843</v>
+        <v>0.3718662952646239</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3654916512059369</v>
+        <v>0.3747680890538033</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.158532935906859</v>
+        <v>0.1650920838994138</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1631578422254986</v>
+        <v>0.1709349337551329</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3871866295264624</v>
+        <v>0.3899721448467967</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.3562152133580705</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1590050423846525</v>
+        <v>0.1672317793264109</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1629932953251733</v>
+        <v>0.1701884782976574</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3904363974001857</v>
+        <v>0.361652739090065</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3413729128014842</v>
+        <v>0.3580705009276438</v>
       </c>
     </row>
   </sheetData>
